--- a/ProjectRequirements.xlsx
+++ b/ProjectRequirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\Helli3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\GitHub\helli3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B8B9C-BC14-4457-9383-F028541FBE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA8A383-F7D3-41FE-9E90-AAC9E37C7EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{4C4B554A-BB0D-4791-9B4E-59905A5A35DC}"/>
   </bookViews>
@@ -2141,7 +2141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="2"/>
@@ -2181,9 +2181,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
@@ -2245,14 +2242,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2265,78 +2256,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2376,6 +2295,141 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2694,90 +2748,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D6BC53-064B-4F89-81A0-4F82BCC83621}">
   <dimension ref="A1:T1200"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A286" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="8" customWidth="1"/>
     <col min="9" max="9" width="9.875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="3" customWidth="1"/>
     <col min="11" max="11" width="18.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="25.25" style="24" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="41" customWidth="1"/>
+    <col min="12" max="12" width="25.25" style="23" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="38" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="73" t="s">
         <v>586</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="75"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>335</v>
       </c>
       <c r="G2" s="3">
@@ -2796,72 +2850,72 @@
       <c r="K2" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="36">
         <f>SUM(I2:I13)</f>
         <v>2587500</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="67" t="s">
         <v>583</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="45">
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="67">
         <f>SUM(M2,M16,M29,M45,M87,M102,M118,M124,M136,M158,M163,M179,M188,M199,M209,M226,M232,M243,M253,M262,M284,M291)</f>
         <v>60003660</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="47"/>
-    </row>
-    <row r="3" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="52"/>
-      <c r="E3" s="67" t="s">
+      <c r="S2" s="68"/>
+      <c r="T2" s="69"/>
+    </row>
+    <row r="3" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="53"/>
+      <c r="E3" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="42">
         <v>2</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="43">
         <v>290000</v>
       </c>
-      <c r="I3" s="69">
+      <c r="I3" s="42">
         <v>580000</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="73" t="s">
+      <c r="L3" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="M3" s="74">
+      <c r="M3" s="47">
         <f>SUM(I10)</f>
         <v>7800</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="72"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="52"/>
-      <c r="E4" s="24" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="53"/>
+      <c r="E4" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>338</v>
       </c>
       <c r="G4" s="3">
@@ -2879,33 +2933,33 @@
       <c r="K4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="36">
         <f>M2-M3</f>
         <v>2579700</v>
       </c>
-      <c r="O4" s="45" t="s">
+      <c r="O4" s="67" t="s">
         <v>584</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="45">
+      <c r="P4" s="68"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="67">
         <f>SUM(M3,M17,M30,M46,M88,M103,M119,M125,M137,M159,M164,M180,M189,M200,M210,M227,M233,M244,M254,M263,M285,M292)</f>
         <v>21711400</v>
       </c>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="52"/>
-      <c r="E5" s="24" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="53"/>
+      <c r="E5" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>339</v>
       </c>
       <c r="G5" s="3">
@@ -2923,23 +2977,23 @@
       <c r="K5" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="39"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="50"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="36"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="72"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="52"/>
-      <c r="E6" s="24" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="53"/>
+      <c r="E6" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>340</v>
       </c>
       <c r="G6" s="3">
@@ -2957,28 +3011,28 @@
       <c r="K6" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="39"/>
-      <c r="O6" s="45" t="s">
+      <c r="L6" s="33"/>
+      <c r="M6" s="36"/>
+      <c r="O6" s="67" t="s">
         <v>585</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="45">
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="67">
         <f>SUM(M4,M18,M31,M47,M89,M104,M120,M126,M138,M160,M165,M181,M190,M201,M211,M228,M234,M245,M255,M264,M286,M293)</f>
         <v>38292260</v>
       </c>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="69"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="52"/>
-      <c r="E7" s="24" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="53"/>
+      <c r="E7" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>341</v>
       </c>
       <c r="G7" s="3">
@@ -2996,51 +3050,51 @@
       <c r="K7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="39"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="50"/>
-    </row>
-    <row r="8" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="52"/>
-      <c r="E8" s="67" t="s">
+      <c r="L7" s="33"/>
+      <c r="M7" s="36"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="72"/>
+    </row>
+    <row r="8" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="53"/>
+      <c r="E8" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="G8" s="69">
-        <v>1</v>
-      </c>
-      <c r="H8" s="70">
+      <c r="G8" s="42">
+        <v>1</v>
+      </c>
+      <c r="H8" s="43">
         <v>60000</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="42">
         <v>60000</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="75"/>
-      <c r="M8" s="74"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="52"/>
-      <c r="E9" s="24" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="53"/>
+      <c r="E9" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>343</v>
       </c>
       <c r="G9" s="3">
@@ -3058,51 +3112,51 @@
       <c r="K9" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="39"/>
-    </row>
-    <row r="10" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="52"/>
-      <c r="E10" s="67" t="s">
+      <c r="L9" s="33"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="53"/>
+      <c r="E10" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="42">
         <v>20</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="43">
         <v>390</v>
       </c>
-      <c r="I10" s="69">
+      <c r="I10" s="42">
         <v>7800</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="74"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="47"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="52"/>
-      <c r="E11" s="24" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="53"/>
+      <c r="E11" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>345</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <v>200000</v>
       </c>
       <c r="I11" s="3">
@@ -3114,23 +3168,23 @@
       <c r="K11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="39"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
-      <c r="E12" s="24" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="53"/>
+      <c r="E12" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>346</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="30">
         <v>200000</v>
       </c>
       <c r="I12" s="3">
@@ -3142,145 +3196,145 @@
       <c r="K12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="39"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="53"/>
-      <c r="E13" s="24" t="s">
+      <c r="L12" s="33"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="54"/>
+      <c r="E13" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="42">
+        <v>1</v>
+      </c>
+      <c r="H13" s="43">
         <v>260000</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="42">
         <v>260000</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="39"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="56"/>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="39"/>
-    </row>
-    <row r="15" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="40"/>
-    </row>
-    <row r="16" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="54" t="s">
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:20" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="42">
         <v>2</v>
       </c>
-      <c r="H16" s="70">
+      <c r="H16" s="43">
         <v>550000</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="42">
         <v>1100000</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="K16" s="76" t="s">
+      <c r="K16" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="67" t="s">
+      <c r="L16" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="M16" s="74">
+      <c r="M16" s="47">
         <f>SUM(I16:I26)</f>
         <v>7450000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="66" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="78" t="s">
+    <row r="17" spans="1:13" s="39" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="G17" s="69">
-        <v>1</v>
-      </c>
-      <c r="H17" s="70">
+      <c r="G17" s="42">
+        <v>1</v>
+      </c>
+      <c r="H17" s="43">
         <v>85000</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="42">
         <v>85000</v>
       </c>
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="K17" s="76" t="s">
+      <c r="K17" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="73" t="s">
+      <c r="L17" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="M17" s="74">
+      <c r="M17" s="47">
         <f>SUM(I16:I17,I19,I24)</f>
         <v>4015000</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="27" t="s">
         <v>350</v>
       </c>
       <c r="G18" s="3">
@@ -3298,52 +3352,52 @@
       <c r="K18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="36">
         <f>M16-M17</f>
         <v>3435000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="66" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="67" t="s">
+    <row r="19" spans="1:13" s="39" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="G19" s="69">
-        <v>1</v>
-      </c>
-      <c r="H19" s="70">
+      <c r="G19" s="42">
+        <v>1</v>
+      </c>
+      <c r="H19" s="43">
         <v>230000</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="42">
         <v>230000</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="77"/>
-      <c r="M19" s="74"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="47"/>
     </row>
     <row r="20" spans="1:13" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="27" t="s">
         <v>352</v>
       </c>
       <c r="G20" s="3">
@@ -3361,18 +3415,18 @@
       <c r="K20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="39"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="1:13" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>353</v>
       </c>
       <c r="G21" s="3">
@@ -3390,18 +3444,18 @@
       <c r="K21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="39"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="1:13" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>354</v>
       </c>
       <c r="G22" s="3">
@@ -3419,18 +3473,18 @@
       <c r="K22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L22" s="34"/>
-      <c r="M22" s="39"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="36"/>
     </row>
     <row r="23" spans="1:13" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="27" t="s">
         <v>355</v>
       </c>
       <c r="G23" s="3">
@@ -3448,47 +3502,47 @@
       <c r="K23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="39"/>
-    </row>
-    <row r="24" spans="1:13" s="66" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="67" t="s">
+      <c r="L23" s="33"/>
+      <c r="M23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" s="39" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="G24" s="69">
-        <v>1</v>
-      </c>
-      <c r="H24" s="70">
+      <c r="G24" s="42">
+        <v>1</v>
+      </c>
+      <c r="H24" s="43">
         <v>2600000</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="42">
         <v>2600000</v>
       </c>
-      <c r="J24" s="71" t="s">
+      <c r="J24" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="K24" s="76" t="s">
+      <c r="K24" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L24" s="77"/>
-      <c r="M24" s="74"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="47"/>
     </row>
     <row r="25" spans="1:13" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>357</v>
       </c>
       <c r="G25" s="3">
@@ -3506,18 +3560,18 @@
       <c r="K25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="39"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:13" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="53"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>497</v>
       </c>
       <c r="G26" s="3">
@@ -3535,47 +3589,47 @@
       <c r="K26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="39"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="56"/>
       <c r="I27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="39"/>
-    </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="19">
-        <v>0</v>
-      </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="40"/>
+      <c r="M27" s="36"/>
+    </row>
+    <row r="28" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="56"/>
+      <c r="B29" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="52" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>358</v>
       </c>
       <c r="G29" s="3">
@@ -3593,22 +3647,22 @@
       <c r="K29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="36">
         <f>SUM(I29:I42)</f>
         <v>1902000</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="52"/>
-      <c r="E30" s="24" t="s">
+      <c r="A30" s="56"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="53"/>
+      <c r="E30" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>341</v>
       </c>
       <c r="G30" s="3">
@@ -3626,22 +3680,22 @@
       <c r="K30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="36">
         <f>SUM(H29:H31,H40:H41)</f>
         <v>608000</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="52"/>
-      <c r="E31" s="24" t="s">
+      <c r="A31" s="56"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="53"/>
+      <c r="E31" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="27" t="s">
         <v>361</v>
       </c>
       <c r="G31" s="3">
@@ -3659,22 +3713,22 @@
       <c r="K31" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="L31" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="36">
         <f>M29-M30</f>
         <v>1294000</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="52"/>
-      <c r="E32" s="24" t="s">
+      <c r="A32" s="56"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="53"/>
+      <c r="E32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>88</v>
       </c>
       <c r="G32" s="3">
@@ -3692,16 +3746,16 @@
       <c r="K32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M32" s="39"/>
+      <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="52"/>
-      <c r="E33" s="24" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="53"/>
+      <c r="E33" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="27" t="s">
         <v>362</v>
       </c>
       <c r="G33" s="3">
@@ -3719,16 +3773,16 @@
       <c r="K33" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M33" s="39"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="52"/>
-      <c r="E34" s="24" t="s">
+      <c r="A34" s="56"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="53"/>
+      <c r="E34" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="27" t="s">
         <v>363</v>
       </c>
       <c r="G34" s="3">
@@ -3746,22 +3800,22 @@
       <c r="K34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M34" s="39"/>
+      <c r="M34" s="36"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="52"/>
-      <c r="E35" s="24" t="s">
+      <c r="A35" s="56"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="53"/>
+      <c r="E35" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="27" t="s">
         <v>364</v>
       </c>
       <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="30">
         <v>320000</v>
       </c>
       <c r="I35" s="3">
@@ -3773,16 +3827,16 @@
       <c r="K35" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="39"/>
+      <c r="M35" s="36"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="52"/>
-      <c r="E36" s="24" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="53"/>
+      <c r="E36" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="27" t="s">
         <v>365</v>
       </c>
       <c r="G36" s="3">
@@ -3800,16 +3854,16 @@
       <c r="K36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M36" s="39"/>
+      <c r="M36" s="36"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="52"/>
-      <c r="E37" s="24" t="s">
+      <c r="A37" s="56"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="53"/>
+      <c r="E37" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="27" t="s">
         <v>72</v>
       </c>
       <c r="G37" s="3">
@@ -3827,16 +3881,16 @@
       <c r="K37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M37" s="39"/>
+      <c r="M37" s="36"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="52"/>
-      <c r="E38" s="24" t="s">
+      <c r="A38" s="56"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="53"/>
+      <c r="E38" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="27" t="s">
         <v>366</v>
       </c>
       <c r="G38" s="3">
@@ -3854,16 +3908,16 @@
       <c r="K38" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M38" s="39"/>
+      <c r="M38" s="36"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="52"/>
-      <c r="E39" s="24" t="s">
+      <c r="A39" s="56"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="53"/>
+      <c r="E39" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="27" t="s">
         <v>367</v>
       </c>
       <c r="G39" s="3">
@@ -3881,16 +3935,16 @@
       <c r="K39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M39" s="39"/>
+      <c r="M39" s="36"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="52"/>
-      <c r="E40" s="24" t="s">
+      <c r="A40" s="56"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="53"/>
+      <c r="E40" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="27" t="s">
         <v>368</v>
       </c>
       <c r="G40" s="3">
@@ -3908,16 +3962,16 @@
       <c r="K40" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="39"/>
+      <c r="M40" s="36"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="52"/>
-      <c r="E41" s="24" t="s">
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="53"/>
+      <c r="E41" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="27" t="s">
         <v>369</v>
       </c>
       <c r="G41" s="3">
@@ -3935,16 +3989,16 @@
       <c r="K41" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="39"/>
+      <c r="M41" s="36"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="53"/>
-      <c r="E42" s="24" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="54"/>
+      <c r="E42" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="27" t="s">
         <v>360</v>
       </c>
       <c r="G42" s="3">
@@ -3962,46 +4016,46 @@
       <c r="K42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M42" s="39"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
+      <c r="A43" s="56"/>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="39"/>
-    </row>
-    <row r="44" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="19">
-        <v>0</v>
-      </c>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="40"/>
+      <c r="M43" s="36"/>
+    </row>
+    <row r="44" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="18">
+        <v>0</v>
+      </c>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="37"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="54" t="s">
+      <c r="A45" s="56"/>
+      <c r="B45" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="27" t="s">
         <v>370</v>
       </c>
       <c r="G45" s="3">
@@ -4019,22 +4073,22 @@
       <c r="K45" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L45" s="24" t="s">
+      <c r="L45" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M45" s="39">
+      <c r="M45" s="36">
         <f>SUM(I45:I54)</f>
         <v>1659000</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="52"/>
-      <c r="E46" s="24" t="s">
+      <c r="A46" s="56"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="53"/>
+      <c r="E46" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="27" t="s">
         <v>69</v>
       </c>
       <c r="G46" s="3">
@@ -4052,22 +4106,22 @@
       <c r="K46" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="L46" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M46" s="39">
+      <c r="M46" s="36">
         <f>SUM(I45:I54)</f>
         <v>1659000</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="52"/>
-      <c r="E47" s="24" t="s">
+      <c r="A47" s="56"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="53"/>
+      <c r="E47" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="27" t="s">
         <v>72</v>
       </c>
       <c r="G47" s="3">
@@ -4085,22 +4139,22 @@
       <c r="K47" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L47" s="24" t="s">
+      <c r="L47" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M47" s="39">
+      <c r="M47" s="36">
         <f>M45-M46</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="52"/>
-      <c r="E48" s="24" t="s">
+      <c r="A48" s="56"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="53"/>
+      <c r="E48" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="27" t="s">
         <v>371</v>
       </c>
       <c r="G48" s="3">
@@ -4118,16 +4172,16 @@
       <c r="K48" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M48" s="39"/>
+      <c r="M48" s="36"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="52"/>
-      <c r="E49" s="24" t="s">
+      <c r="A49" s="56"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="53"/>
+      <c r="E49" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="27" t="s">
         <v>341</v>
       </c>
       <c r="G49" s="3">
@@ -4145,16 +4199,16 @@
       <c r="K49" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M49" s="39"/>
+      <c r="M49" s="36"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="52"/>
-      <c r="E50" s="24" t="s">
+      <c r="A50" s="56"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="53"/>
+      <c r="E50" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="27" t="s">
         <v>342</v>
       </c>
       <c r="G50" s="3">
@@ -4172,16 +4226,16 @@
       <c r="K50" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M50" s="39"/>
+      <c r="M50" s="36"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="52"/>
-      <c r="E51" s="24" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="53"/>
+      <c r="E51" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="27" t="s">
         <v>372</v>
       </c>
       <c r="G51" s="3">
@@ -4199,16 +4253,16 @@
       <c r="K51" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M51" s="39"/>
+      <c r="M51" s="36"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="52"/>
-      <c r="E52" s="24" t="s">
+      <c r="A52" s="56"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="53"/>
+      <c r="E52" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="27" t="s">
         <v>373</v>
       </c>
       <c r="G52" s="3">
@@ -4226,16 +4280,16 @@
       <c r="K52" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="39"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="52"/>
-      <c r="E53" s="24" t="s">
+      <c r="A53" s="56"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="53"/>
+      <c r="E53" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="27" t="s">
         <v>347</v>
       </c>
       <c r="G53" s="3">
@@ -4253,16 +4307,16 @@
       <c r="K53" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="39"/>
+      <c r="M53" s="36"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="53"/>
-      <c r="E54" s="24" t="s">
+      <c r="A54" s="56"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="54"/>
+      <c r="E54" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="F54" s="27" t="s">
         <v>374</v>
       </c>
       <c r="G54" s="3">
@@ -4280,59 +4334,59 @@
       <c r="K54" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M54" s="39"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
+      <c r="A55" s="56"/>
       <c r="I55" s="3">
         <v>0</v>
       </c>
-      <c r="M55" s="39"/>
-    </row>
-    <row r="56" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="19">
-        <v>0</v>
-      </c>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="40"/>
+      <c r="M55" s="36"/>
+    </row>
+    <row r="56" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="18">
+        <v>0</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="37"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="27" t="s">
         <v>375</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="39"/>
+      <c r="M57" s="36"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="E58" s="24" t="s">
+      <c r="A58" s="56"/>
+      <c r="E58" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="27" t="s">
         <v>376</v>
       </c>
       <c r="I58" s="3">
@@ -4341,384 +4395,384 @@
       <c r="J58" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M58" s="39"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="E59" s="24" t="s">
+      <c r="A59" s="56"/>
+      <c r="E59" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="27" t="s">
         <v>377</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="39"/>
+      <c r="M59" s="36"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="E60" s="24" t="s">
+      <c r="A60" s="56"/>
+      <c r="E60" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="28" t="s">
+      <c r="F60" s="27" t="s">
         <v>378</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="39"/>
+      <c r="M60" s="36"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="E61" s="24" t="s">
+      <c r="A61" s="56"/>
+      <c r="E61" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="27" t="s">
         <v>379</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="39"/>
+      <c r="M61" s="36"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="E62" s="24" t="s">
+      <c r="A62" s="56"/>
+      <c r="E62" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="27" t="s">
         <v>381</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="39"/>
+      <c r="M62" s="36"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="E63" s="24" t="s">
+      <c r="A63" s="56"/>
+      <c r="E63" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="27" t="s">
         <v>382</v>
       </c>
       <c r="I63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="39"/>
+      <c r="M63" s="36"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="E64" s="24" t="s">
+      <c r="A64" s="56"/>
+      <c r="E64" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F64" s="27" t="s">
         <v>383</v>
       </c>
       <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="39"/>
+      <c r="M64" s="36"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="E65" s="24" t="s">
+      <c r="A65" s="56"/>
+      <c r="E65" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="27" t="s">
         <v>384</v>
       </c>
       <c r="I65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="39"/>
+      <c r="M65" s="36"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="E66" s="24" t="s">
+      <c r="A66" s="56"/>
+      <c r="E66" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="27" t="s">
         <v>385</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="39"/>
+      <c r="M66" s="36"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="E67" s="24" t="s">
+      <c r="A67" s="56"/>
+      <c r="E67" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="27" t="s">
         <v>386</v>
       </c>
       <c r="I67" s="3">
         <v>0</v>
       </c>
-      <c r="M67" s="39"/>
+      <c r="M67" s="36"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="E68" s="24" t="s">
+      <c r="A68" s="56"/>
+      <c r="E68" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="27" t="s">
         <v>387</v>
       </c>
       <c r="I68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="39"/>
+      <c r="M68" s="36"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="E69" s="24" t="s">
+      <c r="A69" s="56"/>
+      <c r="E69" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F69" s="27" t="s">
         <v>388</v>
       </c>
       <c r="I69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="39"/>
+      <c r="M69" s="36"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="E70" s="24" t="s">
+      <c r="A70" s="56"/>
+      <c r="E70" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="27" t="s">
         <v>389</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="39"/>
+      <c r="M70" s="36"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="E71" s="24" t="s">
+      <c r="A71" s="56"/>
+      <c r="E71" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F71" s="27" t="s">
         <v>390</v>
       </c>
       <c r="I71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="39"/>
+      <c r="M71" s="36"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="E72" s="24" t="s">
+      <c r="A72" s="56"/>
+      <c r="E72" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="27" t="s">
         <v>391</v>
       </c>
       <c r="I72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="39"/>
+      <c r="M72" s="36"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="E73" s="24" t="s">
+      <c r="A73" s="56"/>
+      <c r="E73" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="28" t="s">
+      <c r="F73" s="27" t="s">
         <v>392</v>
       </c>
       <c r="I73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="39"/>
+      <c r="M73" s="36"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="E74" s="24" t="s">
+      <c r="A74" s="56"/>
+      <c r="E74" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="27" t="s">
         <v>393</v>
       </c>
       <c r="I74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="39"/>
+      <c r="M74" s="36"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="E75" s="24" t="s">
+      <c r="A75" s="56"/>
+      <c r="E75" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="27" t="s">
         <v>394</v>
       </c>
       <c r="I75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="39"/>
+      <c r="M75" s="36"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="E76" s="24" t="s">
+      <c r="A76" s="56"/>
+      <c r="E76" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="27" t="s">
         <v>395</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="39"/>
+      <c r="M76" s="36"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="E77" s="24" t="s">
+      <c r="A77" s="56"/>
+      <c r="E77" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F77" s="28" t="s">
+      <c r="F77" s="27" t="s">
         <v>396</v>
       </c>
       <c r="I77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="39"/>
+      <c r="M77" s="36"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="61"/>
-      <c r="E78" s="24" t="s">
+      <c r="A78" s="56"/>
+      <c r="E78" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="27" t="s">
         <v>397</v>
       </c>
       <c r="I78" s="3">
         <v>0</v>
       </c>
-      <c r="M78" s="39"/>
+      <c r="M78" s="36"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="E79" s="24" t="s">
+      <c r="A79" s="56"/>
+      <c r="E79" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="28" t="s">
+      <c r="F79" s="27" t="s">
         <v>398</v>
       </c>
       <c r="I79" s="3">
         <v>0</v>
       </c>
-      <c r="M79" s="39"/>
+      <c r="M79" s="36"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="E80" s="24" t="s">
+      <c r="A80" s="56"/>
+      <c r="E80" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F80" s="28" t="s">
+      <c r="F80" s="27" t="s">
         <v>399</v>
       </c>
       <c r="I80" s="3">
         <v>0</v>
       </c>
-      <c r="M80" s="39"/>
+      <c r="M80" s="36"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="E81" s="24" t="s">
+      <c r="A81" s="56"/>
+      <c r="E81" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="27" t="s">
         <v>400</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="39"/>
+      <c r="M81" s="36"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="E82" s="24" t="s">
+      <c r="A82" s="56"/>
+      <c r="E82" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="F82" s="28" t="s">
+      <c r="F82" s="27" t="s">
         <v>401</v>
       </c>
       <c r="I82" s="3">
         <v>0</v>
       </c>
-      <c r="M82" s="39"/>
+      <c r="M82" s="36"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="E83" s="24" t="s">
+      <c r="A83" s="56"/>
+      <c r="E83" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="27" t="s">
         <v>403</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="39"/>
+      <c r="M83" s="36"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="E84" s="24" t="s">
+      <c r="A84" s="56"/>
+      <c r="E84" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="27" t="s">
         <v>405</v>
       </c>
       <c r="I84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="39"/>
+      <c r="M84" s="36"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
+      <c r="A85" s="56"/>
       <c r="I85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="39"/>
-    </row>
-    <row r="86" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="19">
-        <v>0</v>
-      </c>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="40"/>
+      <c r="M85" s="36"/>
+    </row>
+    <row r="86" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="56"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="18">
+        <v>0</v>
+      </c>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="37"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="54" t="s">
+      <c r="A87" s="56"/>
+      <c r="B87" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="C87" s="52" t="s">
         <v>35</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F87" s="27" t="s">
         <v>406</v>
       </c>
       <c r="G87" s="3">
@@ -4736,22 +4790,22 @@
       <c r="K87" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L87" s="24" t="s">
+      <c r="L87" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M87" s="39">
+      <c r="M87" s="36">
         <f>SUM(I87:I99)</f>
         <v>2028200</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="52"/>
-      <c r="E88" s="24" t="s">
+      <c r="A88" s="56"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="53"/>
+      <c r="E88" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="F88" s="28" t="s">
+      <c r="F88" s="27" t="s">
         <v>342</v>
       </c>
       <c r="G88" s="3">
@@ -4769,22 +4823,22 @@
       <c r="K88" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L88" s="33" t="s">
+      <c r="L88" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M88" s="39">
+      <c r="M88" s="36">
         <f>SUM(I93,I95,I96)</f>
         <v>87700</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="52"/>
-      <c r="E89" s="24" t="s">
+      <c r="A89" s="56"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="53"/>
+      <c r="E89" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="F89" s="28" t="s">
+      <c r="F89" s="27" t="s">
         <v>400</v>
       </c>
       <c r="G89" s="3">
@@ -4802,22 +4856,22 @@
       <c r="K89" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L89" s="24" t="s">
+      <c r="L89" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M89" s="39">
+      <c r="M89" s="36">
         <f>M87-M88</f>
         <v>1940500</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="52"/>
-      <c r="E90" s="24" t="s">
+      <c r="A90" s="56"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="53"/>
+      <c r="E90" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F90" s="28" t="s">
+      <c r="F90" s="27" t="s">
         <v>407</v>
       </c>
       <c r="G90" s="3">
@@ -4835,16 +4889,16 @@
       <c r="K90" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M90" s="39"/>
+      <c r="M90" s="36"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="52"/>
-      <c r="E91" s="24" t="s">
+      <c r="A91" s="56"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="53"/>
+      <c r="E91" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="F91" s="28" t="s">
+      <c r="F91" s="27" t="s">
         <v>408</v>
       </c>
       <c r="G91" s="3">
@@ -4862,16 +4916,16 @@
       <c r="K91" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M91" s="39"/>
+      <c r="M91" s="36"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="52"/>
-      <c r="E92" s="24" t="s">
+      <c r="A92" s="56"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="53"/>
+      <c r="E92" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F92" s="28" t="s">
+      <c r="F92" s="27" t="s">
         <v>341</v>
       </c>
       <c r="G92" s="3">
@@ -4889,16 +4943,16 @@
       <c r="K92" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M92" s="39"/>
+      <c r="M92" s="36"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="52"/>
-      <c r="E93" s="24" t="s">
+      <c r="A93" s="56"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="53"/>
+      <c r="E93" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="F93" s="28" t="s">
+      <c r="F93" s="27" t="s">
         <v>412</v>
       </c>
       <c r="G93" s="3">
@@ -4916,16 +4970,16 @@
       <c r="K93" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M93" s="39"/>
+      <c r="M93" s="36"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="52"/>
-      <c r="E94" s="24" t="s">
+      <c r="A94" s="56"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="53"/>
+      <c r="E94" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="F94" s="28" t="s">
+      <c r="F94" s="27" t="s">
         <v>326</v>
       </c>
       <c r="G94" s="3">
@@ -4943,16 +4997,16 @@
       <c r="K94" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M94" s="39"/>
+      <c r="M94" s="36"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="52"/>
-      <c r="E95" s="24" t="s">
+      <c r="A95" s="56"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="53"/>
+      <c r="E95" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="27" t="s">
         <v>416</v>
       </c>
       <c r="G95" s="3">
@@ -4970,16 +5024,16 @@
       <c r="K95" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M95" s="39"/>
+      <c r="M95" s="36"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="52"/>
-      <c r="E96" s="24" t="s">
+      <c r="A96" s="56"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="53"/>
+      <c r="E96" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F96" s="28" t="s">
+      <c r="F96" s="27" t="s">
         <v>417</v>
       </c>
       <c r="G96" s="3">
@@ -4997,16 +5051,16 @@
       <c r="K96" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M96" s="39"/>
+      <c r="M96" s="36"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="52"/>
-      <c r="E97" s="24" t="s">
+      <c r="A97" s="56"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="53"/>
+      <c r="E97" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="27" t="s">
         <v>414</v>
       </c>
       <c r="G97" s="3">
@@ -5024,16 +5078,16 @@
       <c r="K97" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M97" s="39"/>
+      <c r="M97" s="36"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="52"/>
-      <c r="E98" s="24" t="s">
+      <c r="A98" s="56"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="53"/>
+      <c r="E98" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="27" t="s">
         <v>415</v>
       </c>
       <c r="G98" s="3">
@@ -5051,16 +5105,16 @@
       <c r="K98" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M98" s="39"/>
+      <c r="M98" s="36"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="53"/>
-      <c r="E99" s="24" t="s">
+      <c r="A99" s="56"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="54"/>
+      <c r="E99" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="27" t="s">
         <v>411</v>
       </c>
       <c r="G99" s="3">
@@ -5078,229 +5132,229 @@
       <c r="K99" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M99" s="39"/>
+      <c r="M99" s="36"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
+      <c r="A100" s="56"/>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="39"/>
-    </row>
-    <row r="101" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="20"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="19">
-        <v>0</v>
-      </c>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="25"/>
-      <c r="M101" s="40"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="54" t="s">
+      <c r="M100" s="36"/>
+    </row>
+    <row r="101" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="56"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="19"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="18">
+        <v>0</v>
+      </c>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="37"/>
+    </row>
+    <row r="102" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="56"/>
+      <c r="B102" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C102" s="51" t="s">
+      <c r="C102" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E102" s="24" t="s">
+      <c r="E102" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F102" s="28" t="s">
+      <c r="F102" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="42">
         <v>4</v>
       </c>
-      <c r="H102" s="8">
+      <c r="H102" s="43">
         <v>250000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="42">
         <v>1000000</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="J102" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="K102" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L102" s="24" t="s">
+      <c r="L102" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="M102" s="39">
+      <c r="M102" s="47">
         <f>SUM(I102:I115)</f>
         <v>2886900</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="52"/>
-      <c r="E103" s="24" t="s">
+    <row r="103" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="56"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="53"/>
+      <c r="E103" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="F103" s="28" t="s">
+      <c r="F103" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G103" s="3">
-        <v>1</v>
-      </c>
-      <c r="H103" s="8">
+      <c r="G103" s="42">
+        <v>1</v>
+      </c>
+      <c r="H103" s="43">
         <v>99000</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="42">
         <v>99000</v>
       </c>
-      <c r="J103" s="11" t="s">
+      <c r="J103" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K103" s="10" t="s">
+      <c r="K103" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L103" s="33" t="s">
+      <c r="L103" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="M103" s="39">
+      <c r="M103" s="47">
         <f>SUM(I105:I106,I110,I114:I115)</f>
         <v>754000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="52"/>
-      <c r="E104" s="24" t="s">
+    <row r="104" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="56"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="53"/>
+      <c r="E104" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F104" s="28" t="s">
+      <c r="F104" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="G104" s="3">
-        <v>1</v>
-      </c>
-      <c r="H104" s="8">
+      <c r="G104" s="42">
+        <v>1</v>
+      </c>
+      <c r="H104" s="43">
         <v>360000</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="42">
         <v>360000</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="J104" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="K104" s="10" t="s">
+      <c r="K104" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L104" s="24" t="s">
+      <c r="L104" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="M104" s="39">
+      <c r="M104" s="47">
         <f>M102-M103</f>
         <v>2132900</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="52"/>
-      <c r="E105" s="24" t="s">
+    <row r="105" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="56"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="53"/>
+      <c r="E105" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F105" s="28" t="s">
+      <c r="F105" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="42">
         <v>5</v>
       </c>
-      <c r="H105" s="8">
+      <c r="H105" s="43">
         <v>75000</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="42">
         <v>375000</v>
       </c>
-      <c r="J105" s="11" t="s">
+      <c r="J105" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="K105" s="13" t="s">
+      <c r="K105" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L105" s="35"/>
-      <c r="M105" s="39"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="52"/>
-      <c r="E106" s="24" t="s">
+      <c r="L105" s="50"/>
+      <c r="M105" s="47"/>
+    </row>
+    <row r="106" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="56"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="53"/>
+      <c r="E106" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F106" s="28" t="s">
+      <c r="F106" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="42">
         <v>2</v>
       </c>
-      <c r="H106" s="8">
+      <c r="H106" s="43">
         <v>59000</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="42">
         <v>118000</v>
       </c>
-      <c r="J106" s="11" t="s">
+      <c r="J106" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="K106" s="13" t="s">
+      <c r="K106" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L106" s="35"/>
-      <c r="M106" s="39"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="52"/>
-      <c r="E107" s="24" t="s">
+      <c r="L106" s="50"/>
+      <c r="M106" s="47"/>
+    </row>
+    <row r="107" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="56"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="53"/>
+      <c r="E107" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F107" s="28" t="s">
+      <c r="F107" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="42">
         <v>2</v>
       </c>
-      <c r="H107" s="8">
+      <c r="H107" s="43">
         <v>30000</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="42">
         <v>60000</v>
       </c>
-      <c r="J107" s="11" t="s">
+      <c r="J107" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="K107" s="10" t="s">
+      <c r="K107" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L107" s="34"/>
-      <c r="M107" s="39"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="47"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="61"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="52"/>
-      <c r="E108" s="24" t="s">
+      <c r="A108" s="56"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="53"/>
+      <c r="E108" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F108" s="28" t="s">
+      <c r="F108" s="27" t="s">
         <v>118</v>
       </c>
       <c r="G108" s="3">
@@ -5318,16 +5372,16 @@
       <c r="K108" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M108" s="39"/>
+      <c r="M108" s="36"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="61"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="52"/>
-      <c r="E109" s="24" t="s">
+      <c r="A109" s="56"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="53"/>
+      <c r="E109" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F109" s="28" t="s">
+      <c r="F109" s="27" t="s">
         <v>119</v>
       </c>
       <c r="G109" s="3">
@@ -5345,44 +5399,44 @@
       <c r="K109" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M109" s="39"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="61"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="52"/>
-      <c r="E110" s="24" t="s">
+      <c r="M109" s="36"/>
+    </row>
+    <row r="110" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="56"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="53"/>
+      <c r="E110" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F110" s="28" t="s">
+      <c r="F110" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="G110" s="3">
-        <v>1</v>
-      </c>
-      <c r="H110" s="8">
+      <c r="G110" s="42">
+        <v>1</v>
+      </c>
+      <c r="H110" s="43">
         <v>115000</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="42">
         <v>115000</v>
       </c>
-      <c r="J110" s="11" t="s">
+      <c r="J110" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="K110" s="13" t="s">
+      <c r="K110" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L110" s="35"/>
-      <c r="M110" s="39"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="47"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="61"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="52"/>
-      <c r="E111" s="24" t="s">
+      <c r="A111" s="56"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="53"/>
+      <c r="E111" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="F111" s="28" t="s">
+      <c r="F111" s="27" t="s">
         <v>121</v>
       </c>
       <c r="G111" s="3">
@@ -5400,45 +5454,45 @@
       <c r="K111" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L111" s="34"/>
-      <c r="M111" s="39"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="61"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="52"/>
-      <c r="E112" s="24" t="s">
+      <c r="L111" s="33"/>
+      <c r="M111" s="36"/>
+    </row>
+    <row r="112" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="56"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="53"/>
+      <c r="E112" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F112" s="28" t="s">
+      <c r="F112" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="8">
+      <c r="G112" s="42">
+        <v>1</v>
+      </c>
+      <c r="H112" s="43">
         <v>200000</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="42">
         <v>200000</v>
       </c>
-      <c r="J112" s="11" t="s">
+      <c r="J112" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="K112" s="10" t="s">
+      <c r="K112" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="L112" s="34"/>
-      <c r="M112" s="39"/>
+      <c r="L112" s="48"/>
+      <c r="M112" s="47"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="61"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="52"/>
-      <c r="E113" s="24" t="s">
+      <c r="A113" s="56"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="53"/>
+      <c r="E113" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F113" s="28" t="s">
+      <c r="F113" s="27" t="s">
         <v>123</v>
       </c>
       <c r="G113" s="3">
@@ -5456,103 +5510,103 @@
       <c r="K113" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L113" s="34"/>
-      <c r="M113" s="39"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="61"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="52"/>
-      <c r="E114" s="24" t="s">
+      <c r="L113" s="33"/>
+      <c r="M113" s="36"/>
+    </row>
+    <row r="114" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="56"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="53"/>
+      <c r="E114" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F114" s="28" t="s">
+      <c r="F114" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="42">
         <v>4</v>
       </c>
-      <c r="H114" s="8">
+      <c r="H114" s="43">
         <v>20000</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="42">
         <v>80000</v>
       </c>
-      <c r="J114" s="11" t="s">
+      <c r="J114" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="K114" s="13" t="s">
+      <c r="K114" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L114" s="35"/>
-      <c r="M114" s="39"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="61"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="53"/>
-      <c r="E115" s="24" t="s">
+      <c r="L114" s="50"/>
+      <c r="M114" s="47"/>
+    </row>
+    <row r="115" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="56"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="54"/>
+      <c r="E115" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F115" s="28" t="s">
+      <c r="F115" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G115" s="3">
-        <v>1</v>
-      </c>
-      <c r="H115" s="8">
+      <c r="G115" s="42">
+        <v>1</v>
+      </c>
+      <c r="H115" s="43">
         <v>66000</v>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="42">
         <v>66000</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J115" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="K115" s="13" t="s">
+      <c r="K115" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L115" s="35"/>
-      <c r="M115" s="39"/>
+      <c r="L115" s="50"/>
+      <c r="M115" s="47"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="61"/>
+      <c r="A116" s="56"/>
       <c r="I116" s="3">
         <v>0</v>
       </c>
-      <c r="M116" s="39"/>
-    </row>
-    <row r="117" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="20"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="21"/>
-      <c r="I117" s="19">
-        <v>0</v>
-      </c>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="40"/>
+      <c r="M116" s="36"/>
+    </row>
+    <row r="117" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="56"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="19"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="18">
+        <v>0</v>
+      </c>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="37"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="61"/>
-      <c r="B118" s="54" t="s">
+      <c r="A118" s="56"/>
+      <c r="B118" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="51" t="s">
+      <c r="C118" s="52" t="s">
         <v>41</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E118" s="24" t="s">
+      <c r="E118" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F118" s="28" t="s">
+      <c r="F118" s="27" t="s">
         <v>76</v>
       </c>
       <c r="G118" s="3">
@@ -5570,22 +5624,22 @@
       <c r="K118" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L118" s="24" t="s">
+      <c r="L118" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M118" s="39">
+      <c r="M118" s="36">
         <f>SUM(I118:I121)</f>
         <v>735000</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="52"/>
-      <c r="E119" s="24" t="s">
+      <c r="A119" s="56"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="53"/>
+      <c r="E119" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="F119" s="28" t="s">
+      <c r="F119" s="27" t="s">
         <v>86</v>
       </c>
       <c r="G119" s="3">
@@ -5603,21 +5657,21 @@
       <c r="K119" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L119" s="33" t="s">
+      <c r="L119" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M119" s="39">
+      <c r="M119" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="61"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="52"/>
-      <c r="E120" s="24" t="s">
+      <c r="A120" s="56"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="53"/>
+      <c r="E120" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F120" s="28" t="s">
+      <c r="F120" s="27" t="s">
         <v>88</v>
       </c>
       <c r="G120" s="3">
@@ -5635,22 +5689,22 @@
       <c r="K120" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L120" s="24" t="s">
+      <c r="L120" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M120" s="39">
+      <c r="M120" s="36">
         <f>M118</f>
         <v>735000</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="61"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="53"/>
-      <c r="E121" s="24" t="s">
+      <c r="A121" s="56"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="54"/>
+      <c r="E121" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="F121" s="27" t="s">
         <v>73</v>
       </c>
       <c r="G121" s="3">
@@ -5668,84 +5722,84 @@
       <c r="K121" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L121" s="34"/>
-      <c r="M121" s="39"/>
+      <c r="L121" s="33"/>
+      <c r="M121" s="36"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="62"/>
+      <c r="A122" s="57"/>
       <c r="I122" s="3">
         <v>0</v>
       </c>
-      <c r="M122" s="39"/>
-    </row>
-    <row r="123" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="19"/>
-      <c r="C123" s="20"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="19">
-        <v>0</v>
-      </c>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="40"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="63" t="s">
+      <c r="M122" s="36"/>
+    </row>
+    <row r="123" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="18"/>
+      <c r="C123" s="19"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="18">
+        <v>0</v>
+      </c>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="37"/>
+    </row>
+    <row r="124" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B124" s="54" t="s">
+      <c r="B124" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C124" s="51" t="s">
+      <c r="C124" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E124" s="24" t="s">
+      <c r="D124" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="F124" s="28" t="s">
+      <c r="F124" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="G124" s="3">
-        <v>1</v>
-      </c>
-      <c r="H124" s="8">
+      <c r="G124" s="42">
+        <v>1</v>
+      </c>
+      <c r="H124" s="43">
         <v>99000</v>
       </c>
-      <c r="I124" s="3">
+      <c r="I124" s="42">
         <v>99000</v>
       </c>
-      <c r="J124" s="11" t="s">
+      <c r="J124" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="K124" s="10" t="s">
+      <c r="K124" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L124" s="24" t="s">
+      <c r="L124" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="M124" s="39">
+      <c r="M124" s="47">
         <f>SUM(I124:I133)</f>
         <v>4187900</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="64"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="52"/>
+      <c r="A125" s="62"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="53"/>
       <c r="D125" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E125" s="24" t="s">
+      <c r="E125" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="F125" s="28" t="s">
+      <c r="F125" s="27" t="s">
         <v>326</v>
       </c>
       <c r="G125" s="3">
@@ -5763,25 +5817,25 @@
       <c r="K125" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L125" s="33" t="s">
+      <c r="L125" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M125" s="39">
+      <c r="M125" s="36">
         <f>SUM(I129:I130)</f>
         <v>2666000</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="64"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="52"/>
+      <c r="A126" s="62"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="53"/>
       <c r="D126" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="24" t="s">
+      <c r="E126" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="F126" s="28" t="s">
+      <c r="F126" s="27" t="s">
         <v>418</v>
       </c>
       <c r="G126" s="3">
@@ -5799,23 +5853,23 @@
       <c r="K126" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L126" s="24" t="s">
+      <c r="L126" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M126" s="39">
+      <c r="M126" s="36">
         <f>M124-M125</f>
         <v>1521900</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="64"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="52"/>
+      <c r="A127" s="62"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="53"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="24" t="s">
+      <c r="E127" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="F127" s="28" t="s">
+      <c r="F127" s="27" t="s">
         <v>339</v>
       </c>
       <c r="G127" s="3">
@@ -5833,18 +5887,18 @@
       <c r="K127" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L127" s="34"/>
-      <c r="M127" s="39"/>
+      <c r="L127" s="33"/>
+      <c r="M127" s="36"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="64"/>
-      <c r="B128" s="55"/>
-      <c r="C128" s="52"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="53"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="24" t="s">
+      <c r="E128" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F128" s="28" t="s">
+      <c r="F128" s="27" t="s">
         <v>419</v>
       </c>
       <c r="G128" s="3">
@@ -5862,76 +5916,76 @@
       <c r="K128" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L128" s="34"/>
-      <c r="M128" s="39"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="64"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="24" t="s">
+      <c r="L128" s="33"/>
+      <c r="M128" s="36"/>
+    </row>
+    <row r="129" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="62"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="F129" s="28" t="s">
+      <c r="F129" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="G129" s="3">
-        <v>1</v>
-      </c>
-      <c r="H129" s="8">
+      <c r="G129" s="42">
+        <v>1</v>
+      </c>
+      <c r="H129" s="43">
         <v>2600000</v>
       </c>
-      <c r="I129" s="3">
+      <c r="I129" s="42">
         <v>2600000</v>
       </c>
-      <c r="J129" s="11" t="s">
+      <c r="J129" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="K129" s="13" t="s">
+      <c r="K129" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L129" s="34"/>
-      <c r="M129" s="39"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="64"/>
-      <c r="B130" s="55"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="24" t="s">
+      <c r="L129" s="48"/>
+      <c r="M129" s="47"/>
+    </row>
+    <row r="130" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="62"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F130" s="28" t="s">
+      <c r="F130" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G130" s="3">
-        <v>1</v>
-      </c>
-      <c r="H130" s="8">
+      <c r="G130" s="42">
+        <v>1</v>
+      </c>
+      <c r="H130" s="43">
         <v>66000</v>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="42">
         <v>66000</v>
       </c>
-      <c r="J130" s="11" t="s">
+      <c r="J130" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="K130" s="13" t="s">
+      <c r="K130" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L130" s="34"/>
-      <c r="M130" s="39"/>
+      <c r="L130" s="48"/>
+      <c r="M130" s="47"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="64"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="52"/>
+      <c r="A131" s="62"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="53"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="24" t="s">
+      <c r="E131" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F131" s="28" t="s">
+      <c r="F131" s="27" t="s">
         <v>312</v>
       </c>
       <c r="G131" s="3">
@@ -5949,18 +6003,18 @@
       <c r="K131" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L131" s="34"/>
-      <c r="M131" s="39"/>
+      <c r="L131" s="33"/>
+      <c r="M131" s="36"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="64"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="52"/>
+      <c r="A132" s="62"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="53"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="24" t="s">
+      <c r="E132" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F132" s="28" t="s">
+      <c r="F132" s="27" t="s">
         <v>116</v>
       </c>
       <c r="G132" s="3">
@@ -5978,699 +6032,699 @@
       <c r="K132" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L132" s="34"/>
-      <c r="M132" s="39"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="64"/>
-      <c r="B133" s="56"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="24" t="s">
+      <c r="L132" s="33"/>
+      <c r="M132" s="36"/>
+    </row>
+    <row r="133" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="62"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="F133" s="28" t="s">
+      <c r="F133" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="G133" s="3">
-        <v>1</v>
-      </c>
-      <c r="H133" s="8">
+      <c r="G133" s="42">
+        <v>1</v>
+      </c>
+      <c r="H133" s="43">
         <v>65000</v>
       </c>
-      <c r="I133" s="3">
+      <c r="I133" s="42">
         <v>65000</v>
       </c>
-      <c r="J133" s="11" t="s">
+      <c r="J133" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="K133" s="10" t="s">
+      <c r="K133" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L133" s="34"/>
-      <c r="M133" s="39"/>
+      <c r="L133" s="48"/>
+      <c r="M133" s="47"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="64"/>
+      <c r="A134" s="62"/>
       <c r="I134" s="3">
         <v>0</v>
       </c>
-      <c r="M134" s="39"/>
-    </row>
-    <row r="135" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="64"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="20"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="21"/>
-      <c r="I135" s="19">
-        <v>0</v>
-      </c>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="25"/>
-      <c r="M135" s="40"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="64"/>
-      <c r="B136" s="54" t="s">
+      <c r="M134" s="36"/>
+    </row>
+    <row r="135" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="62"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="19"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="18">
+        <v>0</v>
+      </c>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="37"/>
+    </row>
+    <row r="136" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="62"/>
+      <c r="B136" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C136" s="51" t="s">
+      <c r="C136" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E136" s="24" t="s">
+      <c r="E136" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="F136" s="28" t="s">
+      <c r="F136" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="8">
-        <v>0</v>
-      </c>
-      <c r="I136" s="3">
-        <v>0</v>
-      </c>
-      <c r="J136" s="3" t="s">
+      <c r="G136" s="42">
+        <v>1</v>
+      </c>
+      <c r="H136" s="43">
+        <v>0</v>
+      </c>
+      <c r="I136" s="42">
+        <v>0</v>
+      </c>
+      <c r="J136" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K136" s="13" t="s">
+      <c r="K136" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L136" s="24" t="s">
+      <c r="L136" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="M136" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="64"/>
-      <c r="B137" s="55"/>
-      <c r="C137" s="52"/>
-      <c r="D137" s="4" t="s">
+      <c r="M136" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="62"/>
+      <c r="B137" s="79"/>
+      <c r="C137" s="80"/>
+      <c r="D137" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="24" t="s">
+      <c r="E137" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F137" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G137" s="3">
+      <c r="G137" s="42">
         <v>4</v>
       </c>
-      <c r="H137" s="8">
-        <v>0</v>
-      </c>
-      <c r="I137" s="3">
-        <v>0</v>
-      </c>
-      <c r="J137" s="3" t="s">
+      <c r="H137" s="43">
+        <v>0</v>
+      </c>
+      <c r="I137" s="42">
+        <v>0</v>
+      </c>
+      <c r="J137" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K137" s="13" t="s">
+      <c r="K137" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L137" s="33" t="s">
+      <c r="L137" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="M137" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="64"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="52"/>
-      <c r="D138" s="4" t="s">
+      <c r="M137" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="62"/>
+      <c r="B138" s="79"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E138" s="24" t="s">
+      <c r="E138" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="F138" s="28" t="s">
+      <c r="F138" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="G138" s="3">
-        <v>1</v>
-      </c>
-      <c r="H138" s="8">
-        <v>0</v>
-      </c>
-      <c r="I138" s="3">
-        <v>0</v>
-      </c>
-      <c r="J138" s="3" t="s">
+      <c r="G138" s="42">
+        <v>1</v>
+      </c>
+      <c r="H138" s="43">
+        <v>0</v>
+      </c>
+      <c r="I138" s="42">
+        <v>0</v>
+      </c>
+      <c r="J138" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K138" s="13" t="s">
+      <c r="K138" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L138" s="24" t="s">
+      <c r="L138" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="M138" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="64"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="52"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="24" t="s">
+      <c r="M138" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="62"/>
+      <c r="B139" s="79"/>
+      <c r="C139" s="80"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="F139" s="28" t="s">
+      <c r="F139" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="G139" s="3">
-        <v>1</v>
-      </c>
-      <c r="H139" s="8">
-        <v>0</v>
-      </c>
-      <c r="I139" s="3">
-        <v>0</v>
-      </c>
-      <c r="J139" s="3" t="s">
+      <c r="G139" s="42">
+        <v>1</v>
+      </c>
+      <c r="H139" s="43">
+        <v>0</v>
+      </c>
+      <c r="I139" s="42">
+        <v>0</v>
+      </c>
+      <c r="J139" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K139" s="13" t="s">
+      <c r="K139" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L139" s="35"/>
-      <c r="M139" s="39"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="64"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="24" t="s">
+      <c r="L139" s="50"/>
+      <c r="M139" s="47"/>
+    </row>
+    <row r="140" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="62"/>
+      <c r="B140" s="79"/>
+      <c r="C140" s="80"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F140" s="28" t="s">
+      <c r="F140" s="41" t="s">
         <v>423</v>
       </c>
-      <c r="G140" s="3">
-        <v>1</v>
-      </c>
-      <c r="H140" s="8">
-        <v>0</v>
-      </c>
-      <c r="I140" s="3">
-        <v>0</v>
-      </c>
-      <c r="J140" s="3" t="s">
+      <c r="G140" s="42">
+        <v>1</v>
+      </c>
+      <c r="H140" s="43">
+        <v>0</v>
+      </c>
+      <c r="I140" s="42">
+        <v>0</v>
+      </c>
+      <c r="J140" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K140" s="13" t="s">
+      <c r="K140" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L140" s="35"/>
-      <c r="M140" s="39"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="64"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="52"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="24" t="s">
+      <c r="L140" s="50"/>
+      <c r="M140" s="47"/>
+    </row>
+    <row r="141" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="62"/>
+      <c r="B141" s="79"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="F141" s="28" t="s">
+      <c r="F141" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="G141" s="3">
-        <v>1</v>
-      </c>
-      <c r="H141" s="8">
-        <v>0</v>
-      </c>
-      <c r="I141" s="3">
-        <v>0</v>
-      </c>
-      <c r="J141" s="3" t="s">
+      <c r="G141" s="42">
+        <v>1</v>
+      </c>
+      <c r="H141" s="43">
+        <v>0</v>
+      </c>
+      <c r="I141" s="42">
+        <v>0</v>
+      </c>
+      <c r="J141" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K141" s="13" t="s">
+      <c r="K141" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L141" s="34"/>
-      <c r="M141" s="39"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="64"/>
-      <c r="B142" s="55"/>
-      <c r="C142" s="52"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="24" t="s">
+      <c r="L141" s="48"/>
+      <c r="M141" s="47"/>
+    </row>
+    <row r="142" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="62"/>
+      <c r="B142" s="79"/>
+      <c r="C142" s="80"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="F142" s="28" t="s">
+      <c r="F142" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="G142" s="3">
-        <v>1</v>
-      </c>
-      <c r="H142" s="8">
-        <v>0</v>
-      </c>
-      <c r="I142" s="3">
-        <v>0</v>
-      </c>
-      <c r="J142" s="3" t="s">
+      <c r="G142" s="42">
+        <v>1</v>
+      </c>
+      <c r="H142" s="43">
+        <v>0</v>
+      </c>
+      <c r="I142" s="42">
+        <v>0</v>
+      </c>
+      <c r="J142" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K142" s="13" t="s">
+      <c r="K142" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L142" s="34"/>
-      <c r="M142" s="39"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="64"/>
-      <c r="B143" s="55"/>
-      <c r="C143" s="52"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="24" t="s">
+      <c r="L142" s="48"/>
+      <c r="M142" s="47"/>
+    </row>
+    <row r="143" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="62"/>
+      <c r="B143" s="79"/>
+      <c r="C143" s="80"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="F143" s="28" t="s">
+      <c r="F143" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="G143" s="3">
-        <v>1</v>
-      </c>
-      <c r="H143" s="8">
-        <v>0</v>
-      </c>
-      <c r="I143" s="3">
-        <v>0</v>
-      </c>
-      <c r="J143" s="3" t="s">
+      <c r="G143" s="42">
+        <v>1</v>
+      </c>
+      <c r="H143" s="43">
+        <v>0</v>
+      </c>
+      <c r="I143" s="42">
+        <v>0</v>
+      </c>
+      <c r="J143" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K143" s="13" t="s">
+      <c r="K143" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L143" s="34"/>
-      <c r="M143" s="39"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="64"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="52"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="24" t="s">
+      <c r="L143" s="48"/>
+      <c r="M143" s="47"/>
+    </row>
+    <row r="144" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="62"/>
+      <c r="B144" s="79"/>
+      <c r="C144" s="80"/>
+      <c r="D144" s="51"/>
+      <c r="E144" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="F144" s="28" t="s">
+      <c r="F144" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="G144" s="3">
-        <v>1</v>
-      </c>
-      <c r="H144" s="8">
-        <v>0</v>
-      </c>
-      <c r="I144" s="3">
-        <v>0</v>
-      </c>
-      <c r="J144" s="3" t="s">
+      <c r="G144" s="42">
+        <v>1</v>
+      </c>
+      <c r="H144" s="43">
+        <v>0</v>
+      </c>
+      <c r="I144" s="42">
+        <v>0</v>
+      </c>
+      <c r="J144" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K144" s="13" t="s">
+      <c r="K144" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L144" s="34"/>
-      <c r="M144" s="39"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="64"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="52"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="24" t="s">
+      <c r="L144" s="48"/>
+      <c r="M144" s="47"/>
+    </row>
+    <row r="145" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="62"/>
+      <c r="B145" s="79"/>
+      <c r="C145" s="80"/>
+      <c r="D145" s="51"/>
+      <c r="E145" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="F145" s="28" t="s">
+      <c r="F145" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="G145" s="3">
-        <v>1</v>
-      </c>
-      <c r="H145" s="8">
-        <v>0</v>
-      </c>
-      <c r="I145" s="3">
-        <v>0</v>
-      </c>
-      <c r="J145" s="3" t="s">
+      <c r="G145" s="42">
+        <v>1</v>
+      </c>
+      <c r="H145" s="43">
+        <v>0</v>
+      </c>
+      <c r="I145" s="42">
+        <v>0</v>
+      </c>
+      <c r="J145" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K145" s="13" t="s">
+      <c r="K145" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L145" s="35"/>
-      <c r="M145" s="39"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="64"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="24" t="s">
+      <c r="L145" s="50"/>
+      <c r="M145" s="47"/>
+    </row>
+    <row r="146" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="62"/>
+      <c r="B146" s="79"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="51"/>
+      <c r="E146" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="F146" s="28" t="s">
+      <c r="F146" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="G146" s="3">
-        <v>1</v>
-      </c>
-      <c r="H146" s="8">
-        <v>0</v>
-      </c>
-      <c r="I146" s="3">
-        <v>0</v>
-      </c>
-      <c r="J146" s="3" t="s">
+      <c r="G146" s="42">
+        <v>1</v>
+      </c>
+      <c r="H146" s="43">
+        <v>0</v>
+      </c>
+      <c r="I146" s="42">
+        <v>0</v>
+      </c>
+      <c r="J146" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K146" s="13" t="s">
+      <c r="K146" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L146" s="35"/>
-      <c r="M146" s="39"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="64"/>
-      <c r="B147" s="55"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="24" t="s">
+      <c r="L146" s="50"/>
+      <c r="M146" s="47"/>
+    </row>
+    <row r="147" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="62"/>
+      <c r="B147" s="79"/>
+      <c r="C147" s="80"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F147" s="28" t="s">
+      <c r="F147" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G147" s="3">
-        <v>1</v>
-      </c>
-      <c r="H147" s="8">
-        <v>0</v>
-      </c>
-      <c r="I147" s="3">
-        <v>0</v>
-      </c>
-      <c r="J147" s="3" t="s">
+      <c r="G147" s="42">
+        <v>1</v>
+      </c>
+      <c r="H147" s="43">
+        <v>0</v>
+      </c>
+      <c r="I147" s="42">
+        <v>0</v>
+      </c>
+      <c r="J147" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K147" s="13" t="s">
+      <c r="K147" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L147" s="34"/>
-      <c r="M147" s="39"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="64"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="52"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="24" t="s">
+      <c r="L147" s="48"/>
+      <c r="M147" s="47"/>
+    </row>
+    <row r="148" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="62"/>
+      <c r="B148" s="79"/>
+      <c r="C148" s="80"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="F148" s="28" t="s">
+      <c r="F148" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="G148" s="3">
-        <v>1</v>
-      </c>
-      <c r="H148" s="8">
-        <v>0</v>
-      </c>
-      <c r="I148" s="3">
-        <v>0</v>
-      </c>
-      <c r="J148" s="3" t="s">
+      <c r="G148" s="42">
+        <v>1</v>
+      </c>
+      <c r="H148" s="43">
+        <v>0</v>
+      </c>
+      <c r="I148" s="42">
+        <v>0</v>
+      </c>
+      <c r="J148" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K148" s="13" t="s">
+      <c r="K148" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L148" s="34"/>
-      <c r="M148" s="39"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="64"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="24" t="s">
+      <c r="L148" s="48"/>
+      <c r="M148" s="47"/>
+    </row>
+    <row r="149" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="62"/>
+      <c r="B149" s="79"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="51"/>
+      <c r="E149" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="F149" s="28" t="s">
+      <c r="F149" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="G149" s="3">
-        <v>1</v>
-      </c>
-      <c r="H149" s="8">
-        <v>0</v>
-      </c>
-      <c r="I149" s="3">
-        <v>0</v>
-      </c>
-      <c r="J149" s="3" t="s">
+      <c r="G149" s="42">
+        <v>1</v>
+      </c>
+      <c r="H149" s="43">
+        <v>0</v>
+      </c>
+      <c r="I149" s="42">
+        <v>0</v>
+      </c>
+      <c r="J149" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K149" s="13" t="s">
+      <c r="K149" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L149" s="34"/>
-      <c r="M149" s="39"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="64"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="52"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="24" t="s">
+      <c r="L149" s="48"/>
+      <c r="M149" s="47"/>
+    </row>
+    <row r="150" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="62"/>
+      <c r="B150" s="79"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="F150" s="28" t="s">
+      <c r="F150" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="G150" s="3">
-        <v>1</v>
-      </c>
-      <c r="H150" s="8">
-        <v>0</v>
-      </c>
-      <c r="I150" s="3">
-        <v>0</v>
-      </c>
-      <c r="J150" s="3" t="s">
+      <c r="G150" s="42">
+        <v>1</v>
+      </c>
+      <c r="H150" s="43">
+        <v>0</v>
+      </c>
+      <c r="I150" s="42">
+        <v>0</v>
+      </c>
+      <c r="J150" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K150" s="13" t="s">
+      <c r="K150" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L150" s="34"/>
-      <c r="M150" s="39"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="64"/>
-      <c r="B151" s="55"/>
-      <c r="C151" s="52"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="24" t="s">
+      <c r="L150" s="48"/>
+      <c r="M150" s="47"/>
+    </row>
+    <row r="151" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="62"/>
+      <c r="B151" s="79"/>
+      <c r="C151" s="80"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="F151" s="28" t="s">
+      <c r="F151" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="G151" s="3">
-        <v>1</v>
-      </c>
-      <c r="H151" s="8">
-        <v>0</v>
-      </c>
-      <c r="I151" s="3">
-        <v>0</v>
-      </c>
-      <c r="J151" s="11" t="s">
+      <c r="G151" s="42">
+        <v>1</v>
+      </c>
+      <c r="H151" s="43">
+        <v>0</v>
+      </c>
+      <c r="I151" s="42">
+        <v>0</v>
+      </c>
+      <c r="J151" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="K151" s="13" t="s">
+      <c r="K151" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L151" s="34"/>
-      <c r="M151" s="39"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="64"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="24" t="s">
+      <c r="L151" s="48"/>
+      <c r="M151" s="47"/>
+    </row>
+    <row r="152" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="62"/>
+      <c r="B152" s="79"/>
+      <c r="C152" s="80"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="F152" s="28" t="s">
+      <c r="F152" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="G152" s="3">
-        <v>1</v>
-      </c>
-      <c r="H152" s="8">
-        <v>0</v>
-      </c>
-      <c r="I152" s="3">
-        <v>0</v>
-      </c>
-      <c r="J152" s="3" t="s">
+      <c r="G152" s="42">
+        <v>1</v>
+      </c>
+      <c r="H152" s="43">
+        <v>0</v>
+      </c>
+      <c r="I152" s="42">
+        <v>0</v>
+      </c>
+      <c r="J152" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K152" s="13" t="s">
+      <c r="K152" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L152" s="34"/>
-      <c r="M152" s="39"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="64"/>
-      <c r="B153" s="55"/>
-      <c r="C153" s="52"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="24" t="s">
+      <c r="L152" s="48"/>
+      <c r="M152" s="47"/>
+    </row>
+    <row r="153" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="62"/>
+      <c r="B153" s="79"/>
+      <c r="C153" s="80"/>
+      <c r="D153" s="51"/>
+      <c r="E153" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="F153" s="28" t="s">
+      <c r="F153" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="G153" s="3">
-        <v>1</v>
-      </c>
-      <c r="H153" s="8">
-        <v>0</v>
-      </c>
-      <c r="I153" s="3">
-        <v>0</v>
-      </c>
-      <c r="J153" s="3" t="s">
+      <c r="G153" s="42">
+        <v>1</v>
+      </c>
+      <c r="H153" s="43">
+        <v>0</v>
+      </c>
+      <c r="I153" s="42">
+        <v>0</v>
+      </c>
+      <c r="J153" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K153" s="13" t="s">
+      <c r="K153" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L153" s="35"/>
-      <c r="M153" s="39"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="64"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="52"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="24" t="s">
+      <c r="L153" s="50"/>
+      <c r="M153" s="47"/>
+    </row>
+    <row r="154" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="62"/>
+      <c r="B154" s="79"/>
+      <c r="C154" s="80"/>
+      <c r="D154" s="51"/>
+      <c r="E154" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="F154" s="28" t="s">
+      <c r="F154" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="G154" s="3">
-        <v>1</v>
-      </c>
-      <c r="H154" s="8">
+      <c r="G154" s="42">
+        <v>1</v>
+      </c>
+      <c r="H154" s="43">
         <v>290920</v>
       </c>
-      <c r="I154" s="3">
+      <c r="I154" s="42">
         <v>290920</v>
       </c>
-      <c r="J154" s="11" t="s">
+      <c r="J154" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="K154" s="13" t="s">
+      <c r="K154" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L154" s="34"/>
-      <c r="M154" s="39"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="64"/>
-      <c r="B155" s="56"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="24" t="s">
+      <c r="L154" s="48"/>
+      <c r="M154" s="47"/>
+    </row>
+    <row r="155" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="62"/>
+      <c r="B155" s="81"/>
+      <c r="C155" s="82"/>
+      <c r="D155" s="51"/>
+      <c r="E155" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="F155" s="28" t="s">
+      <c r="F155" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="G155" s="3">
-        <v>1</v>
-      </c>
-      <c r="H155" s="8">
-        <v>0</v>
-      </c>
-      <c r="I155" s="3">
-        <v>0</v>
-      </c>
-      <c r="J155" s="3" t="s">
+      <c r="G155" s="42">
+        <v>1</v>
+      </c>
+      <c r="H155" s="43">
+        <v>0</v>
+      </c>
+      <c r="I155" s="42">
+        <v>0</v>
+      </c>
+      <c r="J155" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K155" s="13" t="s">
+      <c r="K155" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L155" s="34"/>
-      <c r="M155" s="39"/>
+      <c r="L155" s="48"/>
+      <c r="M155" s="47"/>
     </row>
     <row r="156" spans="1:13" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="64"/>
+      <c r="A156" s="62"/>
       <c r="D156" s="4"/>
       <c r="I156" s="3">
         <v>0</v>
       </c>
-      <c r="M156" s="39"/>
-    </row>
-    <row r="157" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="64"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="20"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="19">
-        <v>0</v>
-      </c>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="40"/>
+      <c r="M156" s="36"/>
+    </row>
+    <row r="157" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="62"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="19"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="18">
+        <v>0</v>
+      </c>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="37"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="64"/>
+      <c r="A158" s="62"/>
       <c r="B158" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C158" s="15" t="s">
         <v>536</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E158" s="24" t="s">
+      <c r="E158" s="23" t="s">
         <v>537</v>
       </c>
       <c r="G158" s="3">
@@ -6688,17 +6742,17 @@
       <c r="K158" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L158" s="24" t="s">
+      <c r="L158" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M158" s="39">
+      <c r="M158" s="36">
         <f>SUM(I158:I159)</f>
         <v>796360</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="64"/>
-      <c r="E159" s="24" t="s">
+      <c r="A159" s="62"/>
+      <c r="E159" s="23" t="s">
         <v>538</v>
       </c>
       <c r="G159" s="3">
@@ -6716,196 +6770,196 @@
       <c r="K159" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L159" s="33" t="s">
+      <c r="L159" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M159" s="39">
+      <c r="M159" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="64"/>
+      <c r="A160" s="62"/>
       <c r="I160" s="3">
         <v>0</v>
       </c>
-      <c r="L160" s="24" t="s">
+      <c r="L160" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M160" s="39">
+      <c r="M160" s="36">
         <f>M158</f>
         <v>796360</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="64"/>
+      <c r="A161" s="62"/>
       <c r="D161" s="4"/>
       <c r="I161" s="3">
         <v>0</v>
       </c>
-      <c r="M161" s="39"/>
-    </row>
-    <row r="162" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="64"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="20"/>
-      <c r="E162" s="25"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="19">
-        <v>0</v>
-      </c>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="25"/>
-      <c r="M162" s="40"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="64"/>
-      <c r="B163" s="54" t="s">
+      <c r="M161" s="36"/>
+    </row>
+    <row r="162" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="62"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="19"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="18">
+        <v>0</v>
+      </c>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="24"/>
+      <c r="M162" s="37"/>
+    </row>
+    <row r="163" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="62"/>
+      <c r="B163" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C163" s="51" t="s">
+      <c r="C163" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D163" s="54" t="s">
+      <c r="D163" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="F163" s="30" t="s">
+      <c r="F163" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="G163" s="6">
-        <v>1</v>
-      </c>
-      <c r="H163" s="7">
+      <c r="G163" s="85">
+        <v>1</v>
+      </c>
+      <c r="H163" s="86">
         <v>400000</v>
       </c>
-      <c r="I163" s="3">
+      <c r="I163" s="42">
         <v>400000</v>
       </c>
-      <c r="J163" s="9" t="s">
+      <c r="J163" s="87" t="s">
         <v>542</v>
       </c>
-      <c r="K163" s="10" t="s">
+      <c r="K163" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L163" s="24" t="s">
+      <c r="L163" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="M163" s="39">
+      <c r="M163" s="47">
         <f>SUM(I163:I176)</f>
         <v>2950000</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="64"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="52"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="26" t="s">
+    <row r="164" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="62"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="79"/>
+      <c r="E164" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="F164" s="30" t="s">
+      <c r="F164" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="G164" s="6">
-        <v>1</v>
-      </c>
-      <c r="H164" s="8">
+      <c r="G164" s="85">
+        <v>1</v>
+      </c>
+      <c r="H164" s="43">
         <v>35000</v>
       </c>
-      <c r="I164" s="3">
+      <c r="I164" s="42">
         <v>35000</v>
       </c>
-      <c r="J164" s="11" t="s">
+      <c r="J164" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="K164" s="13" t="s">
+      <c r="K164" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L164" s="33" t="s">
+      <c r="L164" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="M164" s="39">
+      <c r="M164" s="47">
         <f>SUM(I164:I166,I172:I173)</f>
         <v>800000</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="64"/>
-      <c r="B165" s="55"/>
-      <c r="C165" s="52"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="26" t="s">
+    <row r="165" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="62"/>
+      <c r="B165" s="59"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="79"/>
+      <c r="E165" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="F165" s="30" t="s">
+      <c r="F165" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="G165" s="6">
-        <v>1</v>
-      </c>
-      <c r="H165" s="8">
+      <c r="G165" s="85">
+        <v>1</v>
+      </c>
+      <c r="H165" s="43">
         <v>550000</v>
       </c>
-      <c r="I165" s="3">
+      <c r="I165" s="42">
         <v>550000</v>
       </c>
-      <c r="J165" s="11" t="s">
+      <c r="J165" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="K165" s="13" t="s">
+      <c r="K165" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L165" s="24" t="s">
+      <c r="L165" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="M165" s="39">
+      <c r="M165" s="47">
         <f>M163-M164</f>
         <v>2150000</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="64"/>
-      <c r="B166" s="55"/>
-      <c r="C166" s="52"/>
-      <c r="D166" s="55"/>
-      <c r="E166" s="26" t="s">
+    <row r="166" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="62"/>
+      <c r="B166" s="59"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="79"/>
+      <c r="E166" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="F166" s="30" t="s">
+      <c r="F166" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="G166" s="6">
-        <v>1</v>
-      </c>
-      <c r="H166" s="8">
+      <c r="G166" s="85">
+        <v>1</v>
+      </c>
+      <c r="H166" s="43">
         <v>85000</v>
       </c>
-      <c r="I166" s="3">
+      <c r="I166" s="42">
         <v>85000</v>
       </c>
-      <c r="J166" s="11" t="s">
+      <c r="J166" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="K166" s="13" t="s">
+      <c r="K166" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L166" s="35"/>
-      <c r="M166" s="39"/>
+      <c r="L166" s="50"/>
+      <c r="M166" s="47"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="64"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="52"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="26" t="s">
+      <c r="A167" s="62"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="79"/>
+      <c r="E167" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="F167" s="30" t="s">
+      <c r="F167" s="29" t="s">
         <v>202</v>
       </c>
       <c r="G167" s="6">
@@ -6923,76 +6977,76 @@
       <c r="K167" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L167" s="36"/>
-      <c r="M167" s="39"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="64"/>
-      <c r="B168" s="55"/>
-      <c r="C168" s="52"/>
-      <c r="D168" s="55"/>
-      <c r="E168" s="26" t="s">
+      <c r="L167" s="34"/>
+      <c r="M167" s="36"/>
+    </row>
+    <row r="168" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="62"/>
+      <c r="B168" s="59"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="79"/>
+      <c r="E168" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="F168" s="30" t="s">
+      <c r="F168" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="G168" s="6">
-        <v>1</v>
-      </c>
-      <c r="H168" s="7">
+      <c r="G168" s="85">
+        <v>1</v>
+      </c>
+      <c r="H168" s="86">
         <v>140000</v>
       </c>
-      <c r="I168" s="3">
+      <c r="I168" s="42">
         <v>140000</v>
       </c>
-      <c r="J168" s="14" t="s">
+      <c r="J168" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="K168" s="10" t="s">
+      <c r="K168" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L168" s="34"/>
-      <c r="M168" s="39"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="64"/>
-      <c r="B169" s="55"/>
-      <c r="C169" s="52"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="26" t="s">
+      <c r="L168" s="48"/>
+      <c r="M168" s="47"/>
+    </row>
+    <row r="169" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="62"/>
+      <c r="B169" s="59"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="79"/>
+      <c r="E169" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="F169" s="30" t="s">
+      <c r="F169" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="G169" s="6">
+      <c r="G169" s="85">
         <v>2</v>
       </c>
-      <c r="H169" s="7">
+      <c r="H169" s="86">
         <v>90000</v>
       </c>
-      <c r="I169" s="3">
+      <c r="I169" s="42">
         <v>180000</v>
       </c>
-      <c r="J169" s="14" t="s">
+      <c r="J169" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="K169" s="10" t="s">
+      <c r="K169" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L169" s="34"/>
-      <c r="M169" s="39"/>
+      <c r="L169" s="48"/>
+      <c r="M169" s="47"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="64"/>
-      <c r="B170" s="55"/>
-      <c r="C170" s="52"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="26" t="s">
+      <c r="A170" s="62"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="79"/>
+      <c r="E170" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F170" s="30" t="s">
+      <c r="F170" s="29" t="s">
         <v>72</v>
       </c>
       <c r="G170" s="6">
@@ -7010,18 +7064,18 @@
       <c r="K170" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L170" s="34"/>
-      <c r="M170" s="39"/>
+      <c r="L170" s="33"/>
+      <c r="M170" s="36"/>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="64"/>
-      <c r="B171" s="55"/>
-      <c r="C171" s="52"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="26" t="s">
+      <c r="A171" s="62"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="79"/>
+      <c r="E171" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F171" s="30" t="s">
+      <c r="F171" s="29" t="s">
         <v>73</v>
       </c>
       <c r="G171" s="6">
@@ -7039,76 +7093,76 @@
       <c r="K171" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L171" s="36"/>
-      <c r="M171" s="39"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="64"/>
-      <c r="B172" s="55"/>
-      <c r="C172" s="52"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="26" t="s">
+      <c r="L171" s="34"/>
+      <c r="M171" s="36"/>
+    </row>
+    <row r="172" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="62"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="79"/>
+      <c r="E172" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="F172" s="30" t="s">
+      <c r="F172" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G172" s="6">
+      <c r="G172" s="85">
         <v>4</v>
       </c>
-      <c r="H172" s="8">
+      <c r="H172" s="43">
         <v>16000</v>
       </c>
-      <c r="I172" s="3">
+      <c r="I172" s="42">
         <v>64000</v>
       </c>
-      <c r="J172" s="11" t="s">
+      <c r="J172" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="K172" s="13" t="s">
+      <c r="K172" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="L172" s="35"/>
-      <c r="M172" s="39"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="64"/>
-      <c r="B173" s="55"/>
-      <c r="C173" s="52"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="26" t="s">
+      <c r="L172" s="50"/>
+      <c r="M172" s="47"/>
+    </row>
+    <row r="173" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="62"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="79"/>
+      <c r="E173" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F173" s="30" t="s">
+      <c r="F173" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="G173" s="6">
-        <v>1</v>
-      </c>
-      <c r="H173" s="7">
+      <c r="G173" s="85">
+        <v>1</v>
+      </c>
+      <c r="H173" s="86">
         <v>66000</v>
       </c>
-      <c r="I173" s="3">
+      <c r="I173" s="42">
         <v>66000</v>
       </c>
-      <c r="J173" s="9" t="s">
+      <c r="J173" s="87" t="s">
         <v>541</v>
       </c>
-      <c r="K173" s="15" t="s">
+      <c r="K173" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L173" s="37"/>
-      <c r="M173" s="39"/>
+      <c r="L173" s="90"/>
+      <c r="M173" s="47"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="64"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="52"/>
-      <c r="D174" s="55"/>
-      <c r="E174" s="26" t="s">
+      <c r="A174" s="62"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="79"/>
+      <c r="E174" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F174" s="30" t="s">
+      <c r="F174" s="29" t="s">
         <v>76</v>
       </c>
       <c r="G174" s="6">
@@ -7126,18 +7180,18 @@
       <c r="K174" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L174" s="36"/>
-      <c r="M174" s="39"/>
+      <c r="L174" s="34"/>
+      <c r="M174" s="36"/>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="64"/>
-      <c r="B175" s="55"/>
-      <c r="C175" s="52"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="26" t="s">
+      <c r="A175" s="62"/>
+      <c r="B175" s="59"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="79"/>
+      <c r="E175" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F175" s="30" t="s">
+      <c r="F175" s="29" t="s">
         <v>76</v>
       </c>
       <c r="G175" s="6">
@@ -7155,18 +7209,18 @@
       <c r="K175" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L175" s="34"/>
-      <c r="M175" s="39"/>
+      <c r="L175" s="33"/>
+      <c r="M175" s="36"/>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="64"/>
-      <c r="B176" s="56"/>
-      <c r="C176" s="53"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="26" t="s">
+      <c r="A176" s="62"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="81"/>
+      <c r="E176" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F176" s="30" t="s">
+      <c r="F176" s="29" t="s">
         <v>76</v>
       </c>
       <c r="G176" s="6">
@@ -7184,16 +7238,16 @@
       <c r="K176" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L176" s="34"/>
-      <c r="M176" s="39"/>
+      <c r="L176" s="33"/>
+      <c r="M176" s="36"/>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="64"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="27"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="30"/>
+      <c r="A177" s="62"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="29"/>
       <c r="G177" s="6"/>
       <c r="H177" s="7"/>
       <c r="I177" s="3">
@@ -7201,73 +7255,73 @@
       </c>
       <c r="J177" s="9"/>
       <c r="K177" s="10"/>
-      <c r="L177" s="34"/>
-      <c r="M177" s="39"/>
-    </row>
-    <row r="178" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="64"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="20"/>
-      <c r="E178" s="25"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="19">
-        <v>0</v>
-      </c>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="25"/>
-      <c r="M178" s="40"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="64"/>
-      <c r="B179" s="54" t="s">
+      <c r="L177" s="33"/>
+      <c r="M177" s="36"/>
+    </row>
+    <row r="178" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="62"/>
+      <c r="B178" s="18"/>
+      <c r="C178" s="19"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="18">
+        <v>0</v>
+      </c>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="24"/>
+      <c r="M178" s="37"/>
+    </row>
+    <row r="179" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="62"/>
+      <c r="B179" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C179" s="51" t="s">
+      <c r="C179" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="24" t="s">
+      <c r="E179" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="F179" s="28" t="s">
+      <c r="F179" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="G179" s="3">
-        <v>1</v>
-      </c>
-      <c r="H179" s="8">
+      <c r="G179" s="42">
+        <v>1</v>
+      </c>
+      <c r="H179" s="43">
         <v>360000</v>
       </c>
-      <c r="I179" s="3">
+      <c r="I179" s="42">
         <v>360000</v>
       </c>
-      <c r="J179" s="11" t="s">
+      <c r="J179" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="K179" s="15" t="s">
+      <c r="K179" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L179" s="24" t="s">
+      <c r="L179" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="M179" s="39">
+      <c r="M179" s="47">
         <f>SUM(I179:I185)</f>
         <v>1549000</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="64"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="52"/>
-      <c r="E180" s="24" t="s">
+      <c r="A180" s="62"/>
+      <c r="B180" s="59"/>
+      <c r="C180" s="53"/>
+      <c r="E180" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F180" s="28" t="s">
+      <c r="F180" s="27" t="s">
         <v>437</v>
       </c>
       <c r="G180" s="3">
@@ -7285,22 +7339,22 @@
       <c r="K180" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L180" s="33" t="s">
+      <c r="L180" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M180" s="39">
+      <c r="M180" s="36">
         <f>SUM(I179,I185)</f>
         <v>426000</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="64"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="52"/>
-      <c r="E181" s="24" t="s">
+      <c r="A181" s="62"/>
+      <c r="B181" s="59"/>
+      <c r="C181" s="53"/>
+      <c r="E181" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F181" s="28" t="s">
+      <c r="F181" s="27" t="s">
         <v>438</v>
       </c>
       <c r="G181" s="3">
@@ -7318,22 +7372,22 @@
       <c r="K181" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L181" s="24" t="s">
+      <c r="L181" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M181" s="39">
+      <c r="M181" s="36">
         <f>M179-M180</f>
         <v>1123000</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="64"/>
-      <c r="B182" s="55"/>
-      <c r="C182" s="52"/>
-      <c r="E182" s="24" t="s">
+      <c r="A182" s="62"/>
+      <c r="B182" s="59"/>
+      <c r="C182" s="53"/>
+      <c r="E182" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="F182" s="28" t="s">
+      <c r="F182" s="27" t="s">
         <v>370</v>
       </c>
       <c r="G182" s="3">
@@ -7351,17 +7405,17 @@
       <c r="K182" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L182" s="34"/>
-      <c r="M182" s="39"/>
+      <c r="L182" s="33"/>
+      <c r="M182" s="36"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="64"/>
-      <c r="B183" s="55"/>
-      <c r="C183" s="52"/>
-      <c r="E183" s="24" t="s">
+      <c r="A183" s="62"/>
+      <c r="B183" s="59"/>
+      <c r="C183" s="53"/>
+      <c r="E183" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="F183" s="28" t="s">
+      <c r="F183" s="27" t="s">
         <v>439</v>
       </c>
       <c r="G183" s="3">
@@ -7379,17 +7433,17 @@
       <c r="K183" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L183" s="34"/>
-      <c r="M183" s="39"/>
+      <c r="L183" s="33"/>
+      <c r="M183" s="36"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="64"/>
-      <c r="B184" s="55"/>
-      <c r="C184" s="52"/>
-      <c r="E184" s="24" t="s">
+      <c r="A184" s="62"/>
+      <c r="B184" s="59"/>
+      <c r="C184" s="53"/>
+      <c r="E184" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="F184" s="28" t="s">
+      <c r="F184" s="27" t="s">
         <v>373</v>
       </c>
       <c r="G184" s="3">
@@ -7407,108 +7461,108 @@
       <c r="K184" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L184" s="34"/>
-      <c r="M184" s="39"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="64"/>
-      <c r="B185" s="56"/>
-      <c r="C185" s="53"/>
-      <c r="E185" s="24" t="s">
+      <c r="L184" s="33"/>
+      <c r="M184" s="36"/>
+    </row>
+    <row r="185" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="62"/>
+      <c r="B185" s="60"/>
+      <c r="C185" s="54"/>
+      <c r="E185" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F185" s="28" t="s">
+      <c r="F185" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="G185" s="3">
-        <v>1</v>
-      </c>
-      <c r="H185" s="7">
+      <c r="G185" s="42">
+        <v>1</v>
+      </c>
+      <c r="H185" s="86">
         <v>66000</v>
       </c>
-      <c r="I185" s="3">
+      <c r="I185" s="42">
         <v>66000</v>
       </c>
-      <c r="J185" s="9" t="s">
+      <c r="J185" s="87" t="s">
         <v>541</v>
       </c>
-      <c r="K185" s="15" t="s">
+      <c r="K185" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L185" s="37"/>
-      <c r="M185" s="39"/>
+      <c r="L185" s="90"/>
+      <c r="M185" s="47"/>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="64"/>
+      <c r="A186" s="62"/>
       <c r="I186" s="3">
         <v>0</v>
       </c>
-      <c r="M186" s="39"/>
-    </row>
-    <row r="187" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="64"/>
-      <c r="B187" s="19"/>
-      <c r="C187" s="20"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="19">
-        <v>0</v>
-      </c>
-      <c r="J187" s="19"/>
-      <c r="K187" s="19"/>
-      <c r="L187" s="25"/>
-      <c r="M187" s="40"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="64"/>
-      <c r="B188" s="54" t="s">
+      <c r="M186" s="36"/>
+    </row>
+    <row r="187" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="62"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="19"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="18"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="18">
+        <v>0</v>
+      </c>
+      <c r="J187" s="18"/>
+      <c r="K187" s="18"/>
+      <c r="L187" s="24"/>
+      <c r="M187" s="37"/>
+    </row>
+    <row r="188" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="79"/>
+      <c r="B188" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="C188" s="51" t="s">
+      <c r="C188" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E188" s="24" t="s">
+      <c r="E188" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="F188" s="28" t="s">
+      <c r="F188" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="G188" s="3">
+      <c r="G188" s="42">
         <v>3</v>
       </c>
-      <c r="H188" s="8">
+      <c r="H188" s="43">
         <v>230000</v>
       </c>
-      <c r="I188" s="3">
+      <c r="I188" s="42">
         <v>690000</v>
       </c>
-      <c r="J188" s="11" t="s">
+      <c r="J188" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="K188" s="15" t="s">
+      <c r="K188" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L188" s="24" t="s">
+      <c r="L188" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="M188" s="39">
+      <c r="M188" s="47">
         <f>SUM(I188:I196)</f>
         <v>2451900</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="64"/>
-      <c r="B189" s="55"/>
-      <c r="C189" s="52"/>
-      <c r="E189" s="24" t="s">
+      <c r="A189" s="62"/>
+      <c r="B189" s="93"/>
+      <c r="C189" s="94"/>
+      <c r="E189" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F189" s="28" t="s">
+      <c r="F189" s="27" t="s">
         <v>441</v>
       </c>
       <c r="G189" s="3">
@@ -7526,55 +7580,55 @@
       <c r="K189" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L189" s="33" t="s">
+      <c r="L189" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M189" s="39">
+      <c r="M189" s="36">
         <f>SUM(I188,I190)</f>
         <v>982000</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="64"/>
-      <c r="B190" s="55"/>
-      <c r="C190" s="52"/>
-      <c r="E190" s="24" t="s">
+    <row r="190" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="79"/>
+      <c r="B190" s="93"/>
+      <c r="C190" s="94"/>
+      <c r="E190" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="F190" s="28" t="s">
+      <c r="F190" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="G190" s="3">
-        <v>1</v>
-      </c>
-      <c r="H190" s="8">
+      <c r="G190" s="42">
+        <v>1</v>
+      </c>
+      <c r="H190" s="43">
         <v>292000</v>
       </c>
-      <c r="I190" s="3">
+      <c r="I190" s="42">
         <v>292000</v>
       </c>
-      <c r="J190" s="11" t="s">
+      <c r="J190" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="K190" s="15" t="s">
+      <c r="K190" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L190" s="24" t="s">
+      <c r="L190" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="M190" s="39">
+      <c r="M190" s="47">
         <f>M188-M189</f>
         <v>1469900</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="64"/>
-      <c r="B191" s="55"/>
-      <c r="C191" s="52"/>
-      <c r="E191" s="24" t="s">
+      <c r="A191" s="62"/>
+      <c r="B191" s="93"/>
+      <c r="C191" s="94"/>
+      <c r="E191" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F191" s="28" t="s">
+      <c r="F191" s="27" t="s">
         <v>350</v>
       </c>
       <c r="G191" s="3">
@@ -7592,17 +7646,17 @@
       <c r="K191" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L191" s="34"/>
-      <c r="M191" s="39"/>
+      <c r="L191" s="33"/>
+      <c r="M191" s="36"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="64"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="52"/>
-      <c r="E192" s="24" t="s">
+      <c r="A192" s="62"/>
+      <c r="B192" s="93"/>
+      <c r="C192" s="94"/>
+      <c r="E192" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F192" s="28" t="s">
+      <c r="F192" s="27" t="s">
         <v>443</v>
       </c>
       <c r="G192" s="3">
@@ -7620,17 +7674,17 @@
       <c r="K192" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L192" s="34"/>
-      <c r="M192" s="39"/>
+      <c r="L192" s="33"/>
+      <c r="M192" s="36"/>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="64"/>
-      <c r="B193" s="55"/>
-      <c r="C193" s="52"/>
-      <c r="E193" s="24" t="s">
+      <c r="A193" s="62"/>
+      <c r="B193" s="93"/>
+      <c r="C193" s="94"/>
+      <c r="E193" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="F193" s="28" t="s">
+      <c r="F193" s="27" t="s">
         <v>444</v>
       </c>
       <c r="G193" s="3">
@@ -7648,17 +7702,17 @@
       <c r="K193" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L193" s="34"/>
-      <c r="M193" s="39"/>
+      <c r="L193" s="33"/>
+      <c r="M193" s="36"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="64"/>
-      <c r="B194" s="55"/>
-      <c r="C194" s="52"/>
-      <c r="E194" s="24" t="s">
+      <c r="A194" s="62"/>
+      <c r="B194" s="93"/>
+      <c r="C194" s="94"/>
+      <c r="E194" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="F194" s="28" t="s">
+      <c r="F194" s="27" t="s">
         <v>445</v>
       </c>
       <c r="G194" s="3">
@@ -7676,17 +7730,17 @@
       <c r="K194" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L194" s="34"/>
-      <c r="M194" s="39"/>
+      <c r="L194" s="33"/>
+      <c r="M194" s="36"/>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="64"/>
-      <c r="B195" s="55"/>
-      <c r="C195" s="52"/>
-      <c r="E195" s="24" t="s">
+      <c r="A195" s="62"/>
+      <c r="B195" s="93"/>
+      <c r="C195" s="94"/>
+      <c r="E195" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F195" s="28" t="s">
+      <c r="F195" s="27" t="s">
         <v>446</v>
       </c>
       <c r="G195" s="3">
@@ -7704,17 +7758,17 @@
       <c r="K195" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L195" s="34"/>
-      <c r="M195" s="39"/>
+      <c r="L195" s="33"/>
+      <c r="M195" s="36"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="64"/>
-      <c r="B196" s="56"/>
-      <c r="C196" s="53"/>
-      <c r="E196" s="24" t="s">
+      <c r="A196" s="62"/>
+      <c r="B196" s="95"/>
+      <c r="C196" s="96"/>
+      <c r="E196" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="F196" s="28" t="s">
+      <c r="F196" s="27" t="s">
         <v>447</v>
       </c>
       <c r="G196" s="3">
@@ -7732,47 +7786,47 @@
       <c r="K196" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L196" s="34"/>
-      <c r="M196" s="39"/>
+      <c r="L196" s="33"/>
+      <c r="M196" s="36"/>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="64"/>
+      <c r="A197" s="62"/>
       <c r="I197" s="3">
         <v>0</v>
       </c>
-      <c r="M197" s="39"/>
-    </row>
-    <row r="198" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="64"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="20"/>
-      <c r="E198" s="25"/>
-      <c r="F198" s="29"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="21"/>
-      <c r="I198" s="19">
-        <v>0</v>
-      </c>
-      <c r="J198" s="19"/>
-      <c r="K198" s="19"/>
-      <c r="L198" s="25"/>
-      <c r="M198" s="40"/>
+      <c r="M197" s="36"/>
+    </row>
+    <row r="198" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="62"/>
+      <c r="B198" s="18"/>
+      <c r="C198" s="19"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="28"/>
+      <c r="G198" s="18"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="18">
+        <v>0</v>
+      </c>
+      <c r="J198" s="18"/>
+      <c r="K198" s="18"/>
+      <c r="L198" s="24"/>
+      <c r="M198" s="37"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="64"/>
-      <c r="B199" s="54" t="s">
+      <c r="A199" s="62"/>
+      <c r="B199" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="C199" s="51" t="s">
+      <c r="C199" s="52" t="s">
         <v>218</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E199" s="24" t="s">
+      <c r="E199" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="F199" s="28" t="s">
+      <c r="F199" s="27" t="s">
         <v>424</v>
       </c>
       <c r="G199" s="3">
@@ -7790,23 +7844,23 @@
       <c r="K199" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L199" s="24" t="s">
+      <c r="L199" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M199" s="39">
+      <c r="M199" s="36">
         <f>SUM(I199:I206)</f>
         <v>1277500</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="64"/>
-      <c r="B200" s="55"/>
-      <c r="C200" s="52"/>
+      <c r="A200" s="62"/>
+      <c r="B200" s="59"/>
+      <c r="C200" s="53"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="24" t="s">
+      <c r="E200" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F200" s="28" t="s">
+      <c r="F200" s="27" t="s">
         <v>425</v>
       </c>
       <c r="G200" s="3">
@@ -7824,23 +7878,23 @@
       <c r="K200" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L200" s="33" t="s">
+      <c r="L200" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M200" s="39">
+      <c r="M200" s="36">
         <f>SUM(I203,I205)</f>
         <v>5000</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="64"/>
-      <c r="B201" s="55"/>
-      <c r="C201" s="52"/>
+      <c r="A201" s="62"/>
+      <c r="B201" s="59"/>
+      <c r="C201" s="53"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="24" t="s">
+      <c r="E201" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F201" s="28" t="s">
+      <c r="F201" s="27" t="s">
         <v>350</v>
       </c>
       <c r="G201" s="3">
@@ -7858,23 +7912,23 @@
       <c r="K201" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L201" s="24" t="s">
+      <c r="L201" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M201" s="39">
+      <c r="M201" s="36">
         <f>M199-M200</f>
         <v>1272500</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" s="64"/>
-      <c r="B202" s="55"/>
-      <c r="C202" s="52"/>
+      <c r="A202" s="62"/>
+      <c r="B202" s="59"/>
+      <c r="C202" s="53"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="24" t="s">
+      <c r="E202" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="F202" s="28" t="s">
+      <c r="F202" s="27" t="s">
         <v>414</v>
       </c>
       <c r="G202" s="3">
@@ -7892,17 +7946,17 @@
       <c r="K202" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M202" s="39"/>
+      <c r="M202" s="36"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" s="64"/>
-      <c r="B203" s="55"/>
-      <c r="C203" s="52"/>
+      <c r="A203" s="62"/>
+      <c r="B203" s="59"/>
+      <c r="C203" s="53"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="24" t="s">
+      <c r="E203" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="F203" s="28" t="s">
+      <c r="F203" s="27" t="s">
         <v>448</v>
       </c>
       <c r="G203" s="3">
@@ -7917,20 +7971,20 @@
       <c r="J203" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K203" s="15" t="s">
+      <c r="K203" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M203" s="39"/>
+      <c r="M203" s="36"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" s="64"/>
-      <c r="B204" s="55"/>
-      <c r="C204" s="52"/>
+      <c r="A204" s="62"/>
+      <c r="B204" s="59"/>
+      <c r="C204" s="53"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="24" t="s">
+      <c r="E204" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F204" s="28" t="s">
+      <c r="F204" s="27" t="s">
         <v>341</v>
       </c>
       <c r="G204" s="3">
@@ -7948,17 +8002,17 @@
       <c r="K204" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M204" s="39"/>
+      <c r="M204" s="36"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" s="64"/>
-      <c r="B205" s="55"/>
-      <c r="C205" s="52"/>
+      <c r="A205" s="62"/>
+      <c r="B205" s="59"/>
+      <c r="C205" s="53"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="24" t="s">
+      <c r="E205" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F205" s="28" t="s">
+      <c r="F205" s="27" t="s">
         <v>412</v>
       </c>
       <c r="G205" s="3">
@@ -7973,20 +8027,20 @@
       <c r="J205" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="K205" s="15" t="s">
+      <c r="K205" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M205" s="39"/>
+      <c r="M205" s="36"/>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" s="64"/>
-      <c r="B206" s="56"/>
-      <c r="C206" s="53"/>
+      <c r="A206" s="62"/>
+      <c r="B206" s="60"/>
+      <c r="C206" s="54"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="24" t="s">
+      <c r="E206" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="F206" s="28" t="s">
+      <c r="F206" s="27" t="s">
         <v>342</v>
       </c>
       <c r="G206" s="3">
@@ -8004,47 +8058,47 @@
       <c r="K206" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M206" s="39"/>
+      <c r="M206" s="36"/>
     </row>
     <row r="207" spans="1:13" ht="22.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="65"/>
+      <c r="A207" s="63"/>
       <c r="I207" s="3">
         <v>0</v>
       </c>
-      <c r="M207" s="39"/>
-    </row>
-    <row r="208" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="19"/>
-      <c r="C208" s="20"/>
-      <c r="E208" s="25"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="19"/>
-      <c r="H208" s="21"/>
-      <c r="I208" s="19">
-        <v>0</v>
-      </c>
-      <c r="J208" s="19"/>
-      <c r="K208" s="19"/>
-      <c r="L208" s="25"/>
-      <c r="M208" s="40"/>
+      <c r="M207" s="36"/>
+    </row>
+    <row r="208" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="18"/>
+      <c r="C208" s="19"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="18"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="18">
+        <v>0</v>
+      </c>
+      <c r="J208" s="18"/>
+      <c r="K208" s="18"/>
+      <c r="L208" s="24"/>
+      <c r="M208" s="37"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="57" t="s">
+      <c r="A209" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="B209" s="54" t="s">
+      <c r="B209" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="C209" s="51" t="s">
+      <c r="C209" s="52" t="s">
         <v>227</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E209" s="24" t="s">
+      <c r="E209" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="F209" s="28" t="s">
+      <c r="F209" s="27" t="s">
         <v>449</v>
       </c>
       <c r="G209" s="3">
@@ -8062,25 +8116,25 @@
       <c r="K209" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L209" s="24" t="s">
+      <c r="L209" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M209" s="39">
+      <c r="M209" s="36">
         <f>SUM(I209:I223)</f>
         <v>2080500</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="58"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="52"/>
+      <c r="A210" s="65"/>
+      <c r="B210" s="59"/>
+      <c r="C210" s="53"/>
       <c r="D210" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E210" s="24" t="s">
+      <c r="E210" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F210" s="28" t="s">
+      <c r="F210" s="27" t="s">
         <v>450</v>
       </c>
       <c r="G210" s="3">
@@ -8098,25 +8152,25 @@
       <c r="K210" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L210" s="33" t="s">
+      <c r="L210" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M210" s="39">
+      <c r="M210" s="36">
         <f>SUM(I212,I214,I216,I218:I219)</f>
         <v>810000</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="58"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="52"/>
+      <c r="A211" s="65"/>
+      <c r="B211" s="59"/>
+      <c r="C211" s="53"/>
       <c r="D211" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E211" s="24" t="s">
+      <c r="E211" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F211" s="28" t="s">
+      <c r="F211" s="27" t="s">
         <v>430</v>
       </c>
       <c r="G211" s="3">
@@ -8134,50 +8188,50 @@
       <c r="K211" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L211" s="24" t="s">
+      <c r="L211" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M211" s="39">
+      <c r="M211" s="36">
         <f>M209-M210</f>
         <v>1270500</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="58"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="52"/>
-      <c r="E212" s="24" t="s">
+    <row r="212" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="65"/>
+      <c r="B212" s="59"/>
+      <c r="C212" s="53"/>
+      <c r="E212" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="F212" s="28" t="s">
+      <c r="F212" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="G212" s="3">
-        <v>1</v>
-      </c>
-      <c r="H212" s="8">
+      <c r="G212" s="42">
+        <v>1</v>
+      </c>
+      <c r="H212" s="43">
         <v>5000</v>
       </c>
-      <c r="I212" s="3">
+      <c r="I212" s="42">
         <v>5000</v>
       </c>
-      <c r="J212" s="3" t="s">
+      <c r="J212" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K212" s="15" t="s">
+      <c r="K212" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L212" s="37"/>
-      <c r="M212" s="39"/>
+      <c r="L212" s="90"/>
+      <c r="M212" s="47"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="58"/>
-      <c r="B213" s="55"/>
-      <c r="C213" s="52"/>
-      <c r="E213" s="24" t="s">
+      <c r="A213" s="65"/>
+      <c r="B213" s="59"/>
+      <c r="C213" s="53"/>
+      <c r="E213" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="F213" s="28" t="s">
+      <c r="F213" s="27" t="s">
         <v>451</v>
       </c>
       <c r="G213" s="3">
@@ -8195,45 +8249,45 @@
       <c r="K213" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L213" s="34"/>
-      <c r="M213" s="39"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="58"/>
-      <c r="B214" s="55"/>
-      <c r="C214" s="52"/>
-      <c r="E214" s="24" t="s">
+      <c r="L213" s="33"/>
+      <c r="M213" s="36"/>
+    </row>
+    <row r="214" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="65"/>
+      <c r="B214" s="59"/>
+      <c r="C214" s="53"/>
+      <c r="E214" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F214" s="28" t="s">
+      <c r="F214" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="G214" s="3">
-        <v>1</v>
-      </c>
-      <c r="H214" s="8">
+      <c r="G214" s="42">
+        <v>1</v>
+      </c>
+      <c r="H214" s="43">
         <v>5000</v>
       </c>
-      <c r="I214" s="3">
+      <c r="I214" s="42">
         <v>5000</v>
       </c>
-      <c r="J214" s="3" t="s">
+      <c r="J214" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K214" s="15" t="s">
+      <c r="K214" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L214" s="37"/>
-      <c r="M214" s="39"/>
+      <c r="L214" s="90"/>
+      <c r="M214" s="47"/>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="58"/>
-      <c r="B215" s="55"/>
-      <c r="C215" s="52"/>
-      <c r="E215" s="24" t="s">
+      <c r="A215" s="65"/>
+      <c r="B215" s="59"/>
+      <c r="C215" s="53"/>
+      <c r="E215" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="F215" s="28" t="s">
+      <c r="F215" s="27" t="s">
         <v>453</v>
       </c>
       <c r="G215" s="3">
@@ -8251,45 +8305,45 @@
       <c r="K215" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L215" s="34"/>
-      <c r="M215" s="39"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="58"/>
-      <c r="B216" s="55"/>
-      <c r="C216" s="52"/>
-      <c r="E216" s="24" t="s">
+      <c r="L215" s="33"/>
+      <c r="M215" s="36"/>
+    </row>
+    <row r="216" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="65"/>
+      <c r="B216" s="59"/>
+      <c r="C216" s="53"/>
+      <c r="E216" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="F216" s="28" t="s">
+      <c r="F216" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="G216" s="3">
-        <v>1</v>
-      </c>
-      <c r="H216" s="8">
+      <c r="G216" s="42">
+        <v>1</v>
+      </c>
+      <c r="H216" s="43">
         <v>400000</v>
       </c>
-      <c r="I216" s="3">
+      <c r="I216" s="42">
         <v>400000</v>
       </c>
-      <c r="J216" s="3" t="s">
+      <c r="J216" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K216" s="15" t="s">
+      <c r="K216" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L216" s="37"/>
-      <c r="M216" s="39"/>
+      <c r="L216" s="90"/>
+      <c r="M216" s="47"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="58"/>
-      <c r="B217" s="55"/>
-      <c r="C217" s="52"/>
-      <c r="E217" s="24" t="s">
+      <c r="A217" s="65"/>
+      <c r="B217" s="59"/>
+      <c r="C217" s="53"/>
+      <c r="E217" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F217" s="28" t="s">
+      <c r="F217" s="27" t="s">
         <v>455</v>
       </c>
       <c r="G217" s="3">
@@ -8307,73 +8361,73 @@
       <c r="K217" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L217" s="34"/>
-      <c r="M217" s="39"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="58"/>
-      <c r="B218" s="55"/>
-      <c r="C218" s="52"/>
-      <c r="E218" s="24" t="s">
+      <c r="L217" s="33"/>
+      <c r="M217" s="36"/>
+    </row>
+    <row r="218" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="65"/>
+      <c r="B218" s="59"/>
+      <c r="C218" s="53"/>
+      <c r="E218" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="F218" s="28" t="s">
+      <c r="F218" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="G218" s="3">
-        <v>1</v>
-      </c>
-      <c r="H218" s="8">
+      <c r="G218" s="42">
+        <v>1</v>
+      </c>
+      <c r="H218" s="43">
         <v>250000</v>
       </c>
-      <c r="I218" s="3">
+      <c r="I218" s="42">
         <v>250000</v>
       </c>
-      <c r="J218" s="3" t="s">
+      <c r="J218" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K218" s="15" t="s">
+      <c r="K218" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L218" s="37"/>
-      <c r="M218" s="39"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="58"/>
-      <c r="B219" s="55"/>
-      <c r="C219" s="52"/>
-      <c r="E219" s="24" t="s">
+      <c r="L218" s="90"/>
+      <c r="M218" s="47"/>
+    </row>
+    <row r="219" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="65"/>
+      <c r="B219" s="59"/>
+      <c r="C219" s="53"/>
+      <c r="E219" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F219" s="28" t="s">
+      <c r="F219" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="G219" s="3">
-        <v>1</v>
-      </c>
-      <c r="H219" s="8">
+      <c r="G219" s="42">
+        <v>1</v>
+      </c>
+      <c r="H219" s="43">
         <v>150000</v>
       </c>
-      <c r="I219" s="3">
+      <c r="I219" s="42">
         <v>150000</v>
       </c>
-      <c r="J219" s="3" t="s">
+      <c r="J219" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K219" s="15" t="s">
+      <c r="K219" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L219" s="37"/>
-      <c r="M219" s="39"/>
+      <c r="L219" s="90"/>
+      <c r="M219" s="47"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="58"/>
-      <c r="B220" s="55"/>
-      <c r="C220" s="52"/>
-      <c r="E220" s="24" t="s">
+      <c r="A220" s="65"/>
+      <c r="B220" s="59"/>
+      <c r="C220" s="53"/>
+      <c r="E220" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="F220" s="28" t="s">
+      <c r="F220" s="27" t="s">
         <v>458</v>
       </c>
       <c r="G220" s="3">
@@ -8391,17 +8445,17 @@
       <c r="K220" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L220" s="34"/>
-      <c r="M220" s="39"/>
+      <c r="L220" s="33"/>
+      <c r="M220" s="36"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="58"/>
-      <c r="B221" s="55"/>
-      <c r="C221" s="52"/>
-      <c r="E221" s="24" t="s">
+      <c r="A221" s="65"/>
+      <c r="B221" s="59"/>
+      <c r="C221" s="53"/>
+      <c r="E221" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="F221" s="28" t="s">
+      <c r="F221" s="27" t="s">
         <v>459</v>
       </c>
       <c r="G221" s="3">
@@ -8419,17 +8473,17 @@
       <c r="K221" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L221" s="34"/>
-      <c r="M221" s="39"/>
+      <c r="L221" s="33"/>
+      <c r="M221" s="36"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="58"/>
-      <c r="B222" s="55"/>
-      <c r="C222" s="52"/>
-      <c r="E222" s="24" t="s">
+      <c r="A222" s="65"/>
+      <c r="B222" s="59"/>
+      <c r="C222" s="53"/>
+      <c r="E222" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="F222" s="28" t="s">
+      <c r="F222" s="27" t="s">
         <v>460</v>
       </c>
       <c r="G222" s="3">
@@ -8447,17 +8501,17 @@
       <c r="K222" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L222" s="34"/>
-      <c r="M222" s="39"/>
+      <c r="L222" s="33"/>
+      <c r="M222" s="36"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="58"/>
-      <c r="B223" s="56"/>
-      <c r="C223" s="53"/>
-      <c r="E223" s="24" t="s">
+      <c r="A223" s="65"/>
+      <c r="B223" s="60"/>
+      <c r="C223" s="54"/>
+      <c r="E223" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="F223" s="28" t="s">
+      <c r="F223" s="27" t="s">
         <v>436</v>
       </c>
       <c r="G223" s="3">
@@ -8475,46 +8529,46 @@
       <c r="K223" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="M223" s="39"/>
+      <c r="M223" s="36"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="58"/>
+      <c r="A224" s="65"/>
       <c r="I224" s="3">
         <v>0</v>
       </c>
-      <c r="M224" s="39"/>
-    </row>
-    <row r="225" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="58"/>
-      <c r="B225" s="19"/>
-      <c r="C225" s="20"/>
-      <c r="E225" s="25"/>
-      <c r="F225" s="29"/>
-      <c r="G225" s="19"/>
-      <c r="H225" s="21"/>
-      <c r="I225" s="19">
-        <v>0</v>
-      </c>
-      <c r="J225" s="19"/>
-      <c r="K225" s="19"/>
-      <c r="L225" s="25"/>
-      <c r="M225" s="40"/>
+      <c r="M224" s="36"/>
+    </row>
+    <row r="225" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="65"/>
+      <c r="B225" s="18"/>
+      <c r="C225" s="19"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="28"/>
+      <c r="G225" s="18"/>
+      <c r="H225" s="20"/>
+      <c r="I225" s="18">
+        <v>0</v>
+      </c>
+      <c r="J225" s="18"/>
+      <c r="K225" s="18"/>
+      <c r="L225" s="24"/>
+      <c r="M225" s="37"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" s="58"/>
-      <c r="B226" s="54" t="s">
+      <c r="A226" s="65"/>
+      <c r="B226" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C226" s="51" t="s">
+      <c r="C226" s="52" t="s">
         <v>241</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E226" s="24" t="s">
+      <c r="E226" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="F226" s="28" t="s">
+      <c r="F226" s="27" t="s">
         <v>310</v>
       </c>
       <c r="G226" s="3">
@@ -8532,22 +8586,22 @@
       <c r="K226" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L226" s="24" t="s">
+      <c r="L226" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M226" s="39">
+      <c r="M226" s="36">
         <f>SUM(I226:I229)</f>
         <v>1493000</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" s="58"/>
-      <c r="B227" s="55"/>
-      <c r="C227" s="52"/>
-      <c r="E227" s="24" t="s">
+      <c r="A227" s="65"/>
+      <c r="B227" s="59"/>
+      <c r="C227" s="53"/>
+      <c r="E227" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F227" s="28" t="s">
+      <c r="F227" s="27" t="s">
         <v>450</v>
       </c>
       <c r="G227" s="3">
@@ -8565,21 +8619,21 @@
       <c r="K227" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L227" s="33" t="s">
+      <c r="L227" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M227" s="39">
+      <c r="M227" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="58"/>
-      <c r="B228" s="55"/>
-      <c r="C228" s="52"/>
-      <c r="E228" s="24" t="s">
+      <c r="A228" s="65"/>
+      <c r="B228" s="59"/>
+      <c r="C228" s="53"/>
+      <c r="E228" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="F228" s="28" t="s">
+      <c r="F228" s="27" t="s">
         <v>462</v>
       </c>
       <c r="G228" s="3">
@@ -8597,22 +8651,22 @@
       <c r="K228" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L228" s="24" t="s">
+      <c r="L228" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M228" s="39">
+      <c r="M228" s="36">
         <f>M226</f>
         <v>1493000</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="58"/>
-      <c r="B229" s="56"/>
-      <c r="C229" s="53"/>
-      <c r="E229" s="24" t="s">
+      <c r="A229" s="65"/>
+      <c r="B229" s="60"/>
+      <c r="C229" s="54"/>
+      <c r="E229" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="F229" s="28" t="s">
+      <c r="F229" s="27" t="s">
         <v>463</v>
       </c>
       <c r="G229" s="3">
@@ -8630,47 +8684,47 @@
       <c r="K229" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L229" s="34"/>
-      <c r="M229" s="39"/>
+      <c r="L229" s="33"/>
+      <c r="M229" s="36"/>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="58"/>
+      <c r="A230" s="65"/>
       <c r="I230" s="3">
         <v>0</v>
       </c>
-      <c r="M230" s="39"/>
-    </row>
-    <row r="231" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="58"/>
-      <c r="B231" s="19"/>
-      <c r="C231" s="20"/>
-      <c r="E231" s="25"/>
-      <c r="F231" s="29"/>
-      <c r="G231" s="19"/>
-      <c r="H231" s="21"/>
-      <c r="I231" s="19">
-        <v>0</v>
-      </c>
-      <c r="J231" s="19"/>
-      <c r="K231" s="19"/>
-      <c r="L231" s="25"/>
-      <c r="M231" s="40"/>
+      <c r="M230" s="36"/>
+    </row>
+    <row r="231" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="65"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="19"/>
+      <c r="E231" s="24"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="18"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="18">
+        <v>0</v>
+      </c>
+      <c r="J231" s="18"/>
+      <c r="K231" s="18"/>
+      <c r="L231" s="24"/>
+      <c r="M231" s="37"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" s="58"/>
-      <c r="B232" s="54" t="s">
+      <c r="A232" s="65"/>
+      <c r="B232" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="C232" s="51" t="s">
+      <c r="C232" s="52" t="s">
         <v>248</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E232" s="24" t="s">
+      <c r="E232" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="F232" s="28" t="s">
+      <c r="F232" s="27" t="s">
         <v>432</v>
       </c>
       <c r="G232" s="3">
@@ -8688,22 +8742,22 @@
       <c r="K232" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L232" s="24" t="s">
+      <c r="L232" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M232" s="39">
+      <c r="M232" s="36">
         <f>SUM(I232:I240)</f>
         <v>1383000</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" s="58"/>
-      <c r="B233" s="55"/>
-      <c r="C233" s="52"/>
-      <c r="E233" s="24" t="s">
+      <c r="A233" s="65"/>
+      <c r="B233" s="59"/>
+      <c r="C233" s="53"/>
+      <c r="E233" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F233" s="28" t="s">
+      <c r="F233" s="27" t="s">
         <v>464</v>
       </c>
       <c r="G233" s="3">
@@ -8721,21 +8775,21 @@
       <c r="K233" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L233" s="33" t="s">
+      <c r="L233" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M233" s="39">
+      <c r="M233" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" s="58"/>
-      <c r="B234" s="55"/>
-      <c r="C234" s="52"/>
-      <c r="E234" s="24" t="s">
+      <c r="A234" s="65"/>
+      <c r="B234" s="59"/>
+      <c r="C234" s="53"/>
+      <c r="E234" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="F234" s="28" t="s">
+      <c r="F234" s="27" t="s">
         <v>465</v>
       </c>
       <c r="G234" s="3">
@@ -8753,22 +8807,22 @@
       <c r="K234" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L234" s="24" t="s">
+      <c r="L234" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M234" s="39">
+      <c r="M234" s="36">
         <f>M232</f>
         <v>1383000</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" s="58"/>
-      <c r="B235" s="55"/>
-      <c r="C235" s="52"/>
-      <c r="E235" s="24" t="s">
+      <c r="A235" s="65"/>
+      <c r="B235" s="59"/>
+      <c r="C235" s="53"/>
+      <c r="E235" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F235" s="28" t="s">
+      <c r="F235" s="27" t="s">
         <v>466</v>
       </c>
       <c r="G235" s="3">
@@ -8786,16 +8840,16 @@
       <c r="K235" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M235" s="39"/>
+      <c r="M235" s="36"/>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" s="58"/>
-      <c r="B236" s="55"/>
-      <c r="C236" s="52"/>
-      <c r="E236" s="24" t="s">
+      <c r="A236" s="65"/>
+      <c r="B236" s="59"/>
+      <c r="C236" s="53"/>
+      <c r="E236" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="F236" s="28" t="s">
+      <c r="F236" s="27" t="s">
         <v>467</v>
       </c>
       <c r="G236" s="3">
@@ -8813,16 +8867,16 @@
       <c r="K236" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M236" s="39"/>
+      <c r="M236" s="36"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" s="58"/>
-      <c r="B237" s="55"/>
-      <c r="C237" s="52"/>
-      <c r="E237" s="24" t="s">
+      <c r="A237" s="65"/>
+      <c r="B237" s="59"/>
+      <c r="C237" s="53"/>
+      <c r="E237" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F237" s="28" t="s">
+      <c r="F237" s="27" t="s">
         <v>453</v>
       </c>
       <c r="G237" s="3">
@@ -8840,16 +8894,16 @@
       <c r="K237" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M237" s="39"/>
+      <c r="M237" s="36"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" s="58"/>
-      <c r="B238" s="55"/>
-      <c r="C238" s="52"/>
-      <c r="E238" s="24" t="s">
+      <c r="A238" s="65"/>
+      <c r="B238" s="59"/>
+      <c r="C238" s="53"/>
+      <c r="E238" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="F238" s="28" t="s">
+      <c r="F238" s="27" t="s">
         <v>468</v>
       </c>
       <c r="G238" s="3">
@@ -8867,16 +8921,16 @@
       <c r="K238" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M238" s="39"/>
+      <c r="M238" s="36"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" s="58"/>
-      <c r="B239" s="55"/>
-      <c r="C239" s="52"/>
-      <c r="E239" s="24" t="s">
+      <c r="A239" s="65"/>
+      <c r="B239" s="59"/>
+      <c r="C239" s="53"/>
+      <c r="E239" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="F239" s="28" t="s">
+      <c r="F239" s="27" t="s">
         <v>366</v>
       </c>
       <c r="G239" s="3">
@@ -8894,16 +8948,16 @@
       <c r="K239" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M239" s="39"/>
+      <c r="M239" s="36"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" s="58"/>
-      <c r="B240" s="56"/>
-      <c r="C240" s="53"/>
-      <c r="E240" s="24" t="s">
+      <c r="A240" s="65"/>
+      <c r="B240" s="60"/>
+      <c r="C240" s="54"/>
+      <c r="E240" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="F240" s="28" t="s">
+      <c r="F240" s="27" t="s">
         <v>369</v>
       </c>
       <c r="G240" s="3">
@@ -8921,46 +8975,46 @@
       <c r="K240" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M240" s="39"/>
+      <c r="M240" s="36"/>
     </row>
     <row r="241" spans="1:13" ht="21.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="58"/>
+      <c r="A241" s="65"/>
       <c r="I241" s="3">
         <v>0</v>
       </c>
-      <c r="M241" s="39"/>
-    </row>
-    <row r="242" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="58"/>
-      <c r="B242" s="19"/>
-      <c r="C242" s="20"/>
-      <c r="E242" s="25"/>
-      <c r="F242" s="29"/>
-      <c r="G242" s="19"/>
-      <c r="H242" s="21"/>
-      <c r="I242" s="19">
-        <v>0</v>
-      </c>
-      <c r="J242" s="19"/>
-      <c r="K242" s="19"/>
-      <c r="L242" s="25"/>
-      <c r="M242" s="40"/>
+      <c r="M241" s="36"/>
+    </row>
+    <row r="242" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="65"/>
+      <c r="B242" s="18"/>
+      <c r="C242" s="19"/>
+      <c r="E242" s="24"/>
+      <c r="F242" s="28"/>
+      <c r="G242" s="18"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="18">
+        <v>0</v>
+      </c>
+      <c r="J242" s="18"/>
+      <c r="K242" s="18"/>
+      <c r="L242" s="24"/>
+      <c r="M242" s="37"/>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" s="58"/>
-      <c r="B243" s="54" t="s">
+      <c r="A243" s="65"/>
+      <c r="B243" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="C243" s="51" t="s">
+      <c r="C243" s="52" t="s">
         <v>259</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E243" s="24" t="s">
+      <c r="E243" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="F243" s="28" t="s">
+      <c r="F243" s="27" t="s">
         <v>469</v>
       </c>
       <c r="G243" s="3">
@@ -8978,22 +9032,22 @@
       <c r="K243" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L243" s="24" t="s">
+      <c r="L243" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M243" s="39">
+      <c r="M243" s="36">
         <f>SUM(I243:I250)</f>
         <v>1195900</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" s="58"/>
-      <c r="B244" s="55"/>
-      <c r="C244" s="52"/>
-      <c r="E244" s="24" t="s">
+      <c r="A244" s="65"/>
+      <c r="B244" s="59"/>
+      <c r="C244" s="53"/>
+      <c r="E244" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F244" s="28" t="s">
+      <c r="F244" s="27" t="s">
         <v>464</v>
       </c>
       <c r="G244" s="3">
@@ -9011,22 +9065,22 @@
       <c r="K244" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L244" s="33" t="s">
+      <c r="L244" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M244" s="39">
+      <c r="M244" s="36">
         <f>I249</f>
         <v>24900</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" s="58"/>
-      <c r="B245" s="55"/>
-      <c r="C245" s="52"/>
-      <c r="E245" s="24" t="s">
+      <c r="A245" s="65"/>
+      <c r="B245" s="59"/>
+      <c r="C245" s="53"/>
+      <c r="E245" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="F245" s="28" t="s">
+      <c r="F245" s="27" t="s">
         <v>467</v>
       </c>
       <c r="G245" s="3">
@@ -9044,22 +9098,22 @@
       <c r="K245" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L245" s="24" t="s">
+      <c r="L245" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M245" s="39">
+      <c r="M245" s="36">
         <f>M243-M244</f>
         <v>1171000</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" s="58"/>
-      <c r="B246" s="55"/>
-      <c r="C246" s="52"/>
-      <c r="E246" s="24" t="s">
+      <c r="A246" s="65"/>
+      <c r="B246" s="59"/>
+      <c r="C246" s="53"/>
+      <c r="E246" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="F246" s="28" t="s">
+      <c r="F246" s="27" t="s">
         <v>373</v>
       </c>
       <c r="G246" s="3">
@@ -9077,16 +9131,16 @@
       <c r="K246" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M246" s="39"/>
+      <c r="M246" s="36"/>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" s="58"/>
-      <c r="B247" s="55"/>
-      <c r="C247" s="52"/>
-      <c r="E247" s="24" t="s">
+      <c r="A247" s="65"/>
+      <c r="B247" s="59"/>
+      <c r="C247" s="53"/>
+      <c r="E247" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="F247" s="28" t="s">
+      <c r="F247" s="27" t="s">
         <v>363</v>
       </c>
       <c r="G247" s="3">
@@ -9104,16 +9158,16 @@
       <c r="K247" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M247" s="39"/>
+      <c r="M247" s="36"/>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" s="58"/>
-      <c r="B248" s="55"/>
-      <c r="C248" s="52"/>
-      <c r="E248" s="24" t="s">
+      <c r="A248" s="65"/>
+      <c r="B248" s="59"/>
+      <c r="C248" s="53"/>
+      <c r="E248" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="F248" s="28" t="s">
+      <c r="F248" s="27" t="s">
         <v>369</v>
       </c>
       <c r="G248" s="3">
@@ -9131,16 +9185,16 @@
       <c r="K248" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M248" s="39"/>
+      <c r="M248" s="36"/>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" s="58"/>
-      <c r="B249" s="55"/>
-      <c r="C249" s="52"/>
-      <c r="E249" s="24" t="s">
+      <c r="A249" s="65"/>
+      <c r="B249" s="59"/>
+      <c r="C249" s="53"/>
+      <c r="E249" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="F249" s="28" t="s">
+      <c r="F249" s="27" t="s">
         <v>470</v>
       </c>
       <c r="G249" s="3">
@@ -9155,19 +9209,19 @@
       <c r="J249" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="K249" s="15" t="s">
+      <c r="K249" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M249" s="39"/>
+      <c r="M249" s="36"/>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" s="58"/>
-      <c r="B250" s="56"/>
-      <c r="C250" s="53"/>
-      <c r="E250" s="24" t="s">
+      <c r="A250" s="65"/>
+      <c r="B250" s="60"/>
+      <c r="C250" s="54"/>
+      <c r="E250" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="F250" s="28" t="s">
+      <c r="F250" s="27" t="s">
         <v>366</v>
       </c>
       <c r="G250" s="3">
@@ -9185,46 +9239,46 @@
       <c r="K250" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M250" s="39"/>
+      <c r="M250" s="36"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="58"/>
+      <c r="A251" s="65"/>
       <c r="I251" s="3">
         <v>0</v>
       </c>
-      <c r="M251" s="39"/>
-    </row>
-    <row r="252" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="58"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="20"/>
-      <c r="E252" s="25"/>
-      <c r="F252" s="29"/>
-      <c r="G252" s="19"/>
-      <c r="H252" s="21"/>
-      <c r="I252" s="19">
-        <v>0</v>
-      </c>
-      <c r="J252" s="19"/>
-      <c r="K252" s="19"/>
-      <c r="L252" s="25"/>
-      <c r="M252" s="40"/>
+      <c r="M251" s="36"/>
+    </row>
+    <row r="252" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="65"/>
+      <c r="B252" s="18"/>
+      <c r="C252" s="19"/>
+      <c r="E252" s="24"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="18"/>
+      <c r="H252" s="20"/>
+      <c r="I252" s="18">
+        <v>0</v>
+      </c>
+      <c r="J252" s="18"/>
+      <c r="K252" s="18"/>
+      <c r="L252" s="24"/>
+      <c r="M252" s="37"/>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="58"/>
-      <c r="B253" s="54" t="s">
+      <c r="A253" s="65"/>
+      <c r="B253" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="C253" s="51" t="s">
+      <c r="C253" s="52" t="s">
         <v>267</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E253" s="24" t="s">
+      <c r="E253" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="F253" s="28" t="s">
+      <c r="F253" s="27" t="s">
         <v>345</v>
       </c>
       <c r="G253" s="3">
@@ -9242,25 +9296,25 @@
       <c r="K253" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L253" s="24" t="s">
+      <c r="L253" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M253" s="39">
+      <c r="M253" s="36">
         <f>SUM(I253:I259)</f>
         <v>2240000</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="58"/>
-      <c r="B254" s="55"/>
-      <c r="C254" s="52"/>
+      <c r="A254" s="65"/>
+      <c r="B254" s="59"/>
+      <c r="C254" s="53"/>
       <c r="D254" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E254" s="24" t="s">
+      <c r="E254" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="F254" s="28" t="s">
+      <c r="F254" s="27" t="s">
         <v>310</v>
       </c>
       <c r="G254" s="3">
@@ -9278,22 +9332,22 @@
       <c r="K254" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L254" s="33" t="s">
+      <c r="L254" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M254" s="39">
+      <c r="M254" s="36">
         <f>SUM(I257)</f>
         <v>66000</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="58"/>
-      <c r="B255" s="55"/>
-      <c r="C255" s="52"/>
-      <c r="E255" s="24" t="s">
+      <c r="A255" s="65"/>
+      <c r="B255" s="59"/>
+      <c r="C255" s="53"/>
+      <c r="E255" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F255" s="28" t="s">
+      <c r="F255" s="27" t="s">
         <v>450</v>
       </c>
       <c r="G255" s="3">
@@ -9311,22 +9365,22 @@
       <c r="K255" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L255" s="24" t="s">
+      <c r="L255" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M255" s="39">
+      <c r="M255" s="36">
         <f>M253-M254</f>
         <v>2174000</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="58"/>
-      <c r="B256" s="55"/>
-      <c r="C256" s="52"/>
-      <c r="E256" s="24" t="s">
+      <c r="A256" s="65"/>
+      <c r="B256" s="59"/>
+      <c r="C256" s="53"/>
+      <c r="E256" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="F256" s="28" t="s">
+      <c r="F256" s="27" t="s">
         <v>471</v>
       </c>
       <c r="G256" s="3">
@@ -9344,16 +9398,16 @@
       <c r="K256" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M256" s="39"/>
+      <c r="M256" s="36"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="58"/>
-      <c r="B257" s="55"/>
-      <c r="C257" s="52"/>
-      <c r="E257" s="24" t="s">
+      <c r="A257" s="65"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="53"/>
+      <c r="E257" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F257" s="28" t="s">
+      <c r="F257" s="27" t="s">
         <v>468</v>
       </c>
       <c r="G257" s="3">
@@ -9368,19 +9422,19 @@
       <c r="J257" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K257" s="15" t="s">
+      <c r="K257" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M257" s="39"/>
+      <c r="M257" s="36"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" s="58"/>
-      <c r="B258" s="55"/>
-      <c r="C258" s="52"/>
-      <c r="E258" s="24" t="s">
+      <c r="A258" s="65"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="53"/>
+      <c r="E258" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="F258" s="28" t="s">
+      <c r="F258" s="27" t="s">
         <v>472</v>
       </c>
       <c r="G258" s="3">
@@ -9398,16 +9452,16 @@
       <c r="K258" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M258" s="39"/>
+      <c r="M258" s="36"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" s="58"/>
-      <c r="B259" s="56"/>
-      <c r="C259" s="53"/>
-      <c r="E259" s="24" t="s">
+      <c r="A259" s="65"/>
+      <c r="B259" s="60"/>
+      <c r="C259" s="54"/>
+      <c r="E259" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="F259" s="28" t="s">
+      <c r="F259" s="27" t="s">
         <v>571</v>
       </c>
       <c r="G259" s="3">
@@ -9425,46 +9479,46 @@
       <c r="K259" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M259" s="39"/>
+      <c r="M259" s="36"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" s="58"/>
+      <c r="A260" s="65"/>
       <c r="I260" s="3">
         <v>0</v>
       </c>
-      <c r="M260" s="39"/>
-    </row>
-    <row r="261" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="58"/>
-      <c r="B261" s="19"/>
-      <c r="C261" s="20"/>
-      <c r="E261" s="25"/>
-      <c r="F261" s="29"/>
-      <c r="G261" s="19"/>
-      <c r="H261" s="21"/>
-      <c r="I261" s="19">
-        <v>0</v>
-      </c>
-      <c r="J261" s="19"/>
-      <c r="K261" s="19"/>
-      <c r="L261" s="25"/>
-      <c r="M261" s="40"/>
+      <c r="M260" s="36"/>
+    </row>
+    <row r="261" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="65"/>
+      <c r="B261" s="18"/>
+      <c r="C261" s="19"/>
+      <c r="E261" s="24"/>
+      <c r="F261" s="28"/>
+      <c r="G261" s="18"/>
+      <c r="H261" s="20"/>
+      <c r="I261" s="18">
+        <v>0</v>
+      </c>
+      <c r="J261" s="18"/>
+      <c r="K261" s="18"/>
+      <c r="L261" s="24"/>
+      <c r="M261" s="37"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" s="58"/>
-      <c r="B262" s="54" t="s">
+      <c r="A262" s="65"/>
+      <c r="B262" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="C262" s="51" t="s">
+      <c r="C262" s="52" t="s">
         <v>276</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E262" s="24" t="s">
+      <c r="E262" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F262" s="28" t="s">
+      <c r="F262" s="27" t="s">
         <v>450</v>
       </c>
       <c r="G262" s="3">
@@ -9482,22 +9536,22 @@
       <c r="K262" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L262" s="24" t="s">
+      <c r="L262" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M262" s="39">
+      <c r="M262" s="36">
         <f>SUM(I262:I281)</f>
         <v>12564000</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" s="58"/>
-      <c r="B263" s="55"/>
-      <c r="C263" s="52"/>
-      <c r="E263" s="24" t="s">
+      <c r="A263" s="65"/>
+      <c r="B263" s="59"/>
+      <c r="C263" s="53"/>
+      <c r="E263" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="F263" s="28" t="s">
+      <c r="F263" s="27" t="s">
         <v>473</v>
       </c>
       <c r="G263" s="3">
@@ -9512,25 +9566,25 @@
       <c r="J263" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="K263" s="15" t="s">
+      <c r="K263" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L263" s="33" t="s">
+      <c r="L263" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M263" s="39">
+      <c r="M263" s="36">
         <f>SUM(I263,I265,I268)</f>
         <v>6600000</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" s="58"/>
-      <c r="B264" s="55"/>
-      <c r="C264" s="52"/>
-      <c r="E264" s="24" t="s">
+      <c r="A264" s="65"/>
+      <c r="B264" s="59"/>
+      <c r="C264" s="53"/>
+      <c r="E264" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F264" s="28" t="s">
+      <c r="F264" s="27" t="s">
         <v>312</v>
       </c>
       <c r="G264" s="3">
@@ -9548,22 +9602,22 @@
       <c r="K264" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L264" s="24" t="s">
+      <c r="L264" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M264" s="39">
+      <c r="M264" s="36">
         <f>M262-M263</f>
         <v>5964000</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" s="58"/>
-      <c r="B265" s="55"/>
-      <c r="C265" s="52"/>
-      <c r="E265" s="24" t="s">
+      <c r="A265" s="65"/>
+      <c r="B265" s="59"/>
+      <c r="C265" s="53"/>
+      <c r="E265" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="F265" s="28" t="s">
+      <c r="F265" s="27" t="s">
         <v>474</v>
       </c>
       <c r="G265" s="3">
@@ -9578,19 +9632,19 @@
       <c r="J265" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="K265" s="15" t="s">
+      <c r="K265" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M265" s="39"/>
+      <c r="M265" s="36"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" s="58"/>
-      <c r="B266" s="55"/>
-      <c r="C266" s="52"/>
-      <c r="E266" s="24" t="s">
+      <c r="A266" s="65"/>
+      <c r="B266" s="59"/>
+      <c r="C266" s="53"/>
+      <c r="E266" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="F266" s="28" t="s">
+      <c r="F266" s="27" t="s">
         <v>475</v>
       </c>
       <c r="G266" s="3">
@@ -9608,16 +9662,16 @@
       <c r="K266" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M266" s="39"/>
+      <c r="M266" s="36"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" s="58"/>
-      <c r="B267" s="55"/>
-      <c r="C267" s="52"/>
-      <c r="E267" s="24" t="s">
+      <c r="A267" s="65"/>
+      <c r="B267" s="59"/>
+      <c r="C267" s="53"/>
+      <c r="E267" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="F267" s="28" t="s">
+      <c r="F267" s="27" t="s">
         <v>476</v>
       </c>
       <c r="G267" s="3">
@@ -9635,16 +9689,16 @@
       <c r="K267" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M267" s="39"/>
+      <c r="M267" s="36"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" s="58"/>
-      <c r="B268" s="55"/>
-      <c r="C268" s="52"/>
-      <c r="E268" s="24" t="s">
+      <c r="A268" s="65"/>
+      <c r="B268" s="59"/>
+      <c r="C268" s="53"/>
+      <c r="E268" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="F268" s="28" t="s">
+      <c r="F268" s="27" t="s">
         <v>477</v>
       </c>
       <c r="G268" s="3">
@@ -9659,19 +9713,19 @@
       <c r="J268" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="K268" s="15" t="s">
+      <c r="K268" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M268" s="39"/>
+      <c r="M268" s="36"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" s="58"/>
-      <c r="B269" s="55"/>
-      <c r="C269" s="52"/>
-      <c r="E269" s="24" t="s">
+      <c r="A269" s="65"/>
+      <c r="B269" s="59"/>
+      <c r="C269" s="53"/>
+      <c r="E269" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="F269" s="28" t="s">
+      <c r="F269" s="27" t="s">
         <v>478</v>
       </c>
       <c r="G269" s="3">
@@ -9689,16 +9743,16 @@
       <c r="K269" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M269" s="39"/>
+      <c r="M269" s="36"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="58"/>
-      <c r="B270" s="55"/>
-      <c r="C270" s="52"/>
-      <c r="E270" s="24" t="s">
+      <c r="A270" s="65"/>
+      <c r="B270" s="59"/>
+      <c r="C270" s="53"/>
+      <c r="E270" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="F270" s="28" t="s">
+      <c r="F270" s="27" t="s">
         <v>479</v>
       </c>
       <c r="G270" s="3">
@@ -9716,16 +9770,16 @@
       <c r="K270" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M270" s="39"/>
+      <c r="M270" s="36"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" s="58"/>
-      <c r="B271" s="55"/>
-      <c r="C271" s="52"/>
-      <c r="E271" s="24" t="s">
+      <c r="A271" s="65"/>
+      <c r="B271" s="59"/>
+      <c r="C271" s="53"/>
+      <c r="E271" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F271" s="28" t="s">
+      <c r="F271" s="27" t="s">
         <v>284</v>
       </c>
       <c r="G271" s="3">
@@ -9743,16 +9797,16 @@
       <c r="K271" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M271" s="39"/>
+      <c r="M271" s="36"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="58"/>
-      <c r="B272" s="55"/>
-      <c r="C272" s="52"/>
-      <c r="E272" s="24" t="s">
+      <c r="A272" s="65"/>
+      <c r="B272" s="59"/>
+      <c r="C272" s="53"/>
+      <c r="E272" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="F272" s="28" t="s">
+      <c r="F272" s="27" t="s">
         <v>480</v>
       </c>
       <c r="G272" s="3">
@@ -9770,16 +9824,16 @@
       <c r="K272" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M272" s="39"/>
+      <c r="M272" s="36"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" s="58"/>
-      <c r="B273" s="55"/>
-      <c r="C273" s="52"/>
-      <c r="E273" s="24" t="s">
+      <c r="A273" s="65"/>
+      <c r="B273" s="59"/>
+      <c r="C273" s="53"/>
+      <c r="E273" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="F273" s="28" t="s">
+      <c r="F273" s="27" t="s">
         <v>462</v>
       </c>
       <c r="G273" s="3">
@@ -9797,16 +9851,16 @@
       <c r="K273" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M273" s="39"/>
+      <c r="M273" s="36"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" s="58"/>
-      <c r="B274" s="55"/>
-      <c r="C274" s="52"/>
-      <c r="E274" s="24" t="s">
+      <c r="A274" s="65"/>
+      <c r="B274" s="59"/>
+      <c r="C274" s="53"/>
+      <c r="E274" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="F274" s="28" t="s">
+      <c r="F274" s="27" t="s">
         <v>288</v>
       </c>
       <c r="G274" s="3">
@@ -9824,16 +9878,16 @@
       <c r="K274" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M274" s="39"/>
+      <c r="M274" s="36"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" s="58"/>
-      <c r="B275" s="55"/>
-      <c r="C275" s="52"/>
-      <c r="E275" s="24" t="s">
+      <c r="A275" s="65"/>
+      <c r="B275" s="59"/>
+      <c r="C275" s="53"/>
+      <c r="E275" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="F275" s="28" t="s">
+      <c r="F275" s="27" t="s">
         <v>481</v>
       </c>
       <c r="G275" s="3">
@@ -9851,16 +9905,16 @@
       <c r="K275" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M275" s="39"/>
+      <c r="M275" s="36"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" s="58"/>
-      <c r="B276" s="55"/>
-      <c r="C276" s="52"/>
-      <c r="E276" s="24" t="s">
+      <c r="A276" s="65"/>
+      <c r="B276" s="59"/>
+      <c r="C276" s="53"/>
+      <c r="E276" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="F276" s="28" t="s">
+      <c r="F276" s="27" t="s">
         <v>430</v>
       </c>
       <c r="G276" s="3">
@@ -9878,16 +9932,16 @@
       <c r="K276" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M276" s="39"/>
+      <c r="M276" s="36"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" s="58"/>
-      <c r="B277" s="55"/>
-      <c r="C277" s="52"/>
-      <c r="E277" s="24" t="s">
+      <c r="A277" s="65"/>
+      <c r="B277" s="59"/>
+      <c r="C277" s="53"/>
+      <c r="E277" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="F277" s="28" t="s">
+      <c r="F277" s="27" t="s">
         <v>436</v>
       </c>
       <c r="G277" s="3">
@@ -9905,16 +9959,16 @@
       <c r="K277" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="M277" s="39"/>
+      <c r="M277" s="36"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="58"/>
-      <c r="B278" s="55"/>
-      <c r="C278" s="52"/>
-      <c r="E278" s="24" t="s">
+      <c r="A278" s="65"/>
+      <c r="B278" s="59"/>
+      <c r="C278" s="53"/>
+      <c r="E278" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F278" s="28" t="s">
+      <c r="F278" s="27" t="s">
         <v>482</v>
       </c>
       <c r="G278" s="3">
@@ -9932,16 +9986,16 @@
       <c r="K278" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="M278" s="39"/>
+      <c r="M278" s="36"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" s="58"/>
-      <c r="B279" s="55"/>
-      <c r="C279" s="52"/>
-      <c r="E279" s="24" t="s">
+      <c r="A279" s="65"/>
+      <c r="B279" s="59"/>
+      <c r="C279" s="53"/>
+      <c r="E279" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="F279" s="28" t="s">
+      <c r="F279" s="27" t="s">
         <v>117</v>
       </c>
       <c r="G279" s="3">
@@ -9959,16 +10013,16 @@
       <c r="K279" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M279" s="39"/>
+      <c r="M279" s="36"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" s="58"/>
-      <c r="B280" s="56"/>
-      <c r="C280" s="53"/>
-      <c r="E280" s="24" t="s">
+      <c r="A280" s="65"/>
+      <c r="B280" s="60"/>
+      <c r="C280" s="54"/>
+      <c r="E280" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F280" s="28" t="s">
+      <c r="F280" s="27" t="s">
         <v>483</v>
       </c>
       <c r="G280" s="3">
@@ -9986,16 +10040,16 @@
       <c r="K280" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M280" s="39"/>
+      <c r="M280" s="36"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" s="58"/>
-      <c r="B281" s="17"/>
-      <c r="C281" s="27"/>
-      <c r="E281" s="24" t="s">
+      <c r="A281" s="65"/>
+      <c r="B281" s="16"/>
+      <c r="C281" s="26"/>
+      <c r="E281" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="F281" s="28" t="s">
+      <c r="F281" s="27" t="s">
         <v>424</v>
       </c>
       <c r="G281" s="3">
@@ -10013,46 +10067,46 @@
       <c r="K281" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M281" s="39"/>
+      <c r="M281" s="36"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" s="58"/>
+      <c r="A282" s="65"/>
       <c r="I282" s="3">
         <v>0</v>
       </c>
-      <c r="M282" s="39"/>
-    </row>
-    <row r="283" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="58"/>
-      <c r="B283" s="19"/>
-      <c r="C283" s="20"/>
-      <c r="E283" s="25"/>
-      <c r="F283" s="29"/>
-      <c r="G283" s="19"/>
-      <c r="H283" s="21"/>
-      <c r="I283" s="19">
-        <v>0</v>
-      </c>
-      <c r="J283" s="19"/>
-      <c r="K283" s="19"/>
-      <c r="L283" s="25"/>
-      <c r="M283" s="40"/>
+      <c r="M282" s="36"/>
+    </row>
+    <row r="283" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="65"/>
+      <c r="B283" s="18"/>
+      <c r="C283" s="19"/>
+      <c r="E283" s="24"/>
+      <c r="F283" s="28"/>
+      <c r="G283" s="18"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="18">
+        <v>0</v>
+      </c>
+      <c r="J283" s="18"/>
+      <c r="K283" s="18"/>
+      <c r="L283" s="24"/>
+      <c r="M283" s="37"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" s="58"/>
-      <c r="B284" s="54" t="s">
+      <c r="A284" s="65"/>
+      <c r="B284" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C284" s="51" t="s">
+      <c r="C284" s="52" t="s">
         <v>297</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E284" s="24" t="s">
+      <c r="E284" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F284" s="28" t="s">
+      <c r="F284" s="27" t="s">
         <v>450</v>
       </c>
       <c r="G284" s="3">
@@ -10070,22 +10124,22 @@
       <c r="K284" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L284" s="24" t="s">
+      <c r="L284" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M284" s="39">
+      <c r="M284" s="36">
         <f>SUM(I284:I288)</f>
         <v>850000</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" s="58"/>
-      <c r="B285" s="55"/>
-      <c r="C285" s="52"/>
-      <c r="E285" s="24" t="s">
+      <c r="A285" s="65"/>
+      <c r="B285" s="59"/>
+      <c r="C285" s="53"/>
+      <c r="E285" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="F285" s="28" t="s">
+      <c r="F285" s="27" t="s">
         <v>430</v>
       </c>
       <c r="G285" s="3">
@@ -10103,21 +10157,21 @@
       <c r="K285" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L285" s="33" t="s">
+      <c r="L285" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M285" s="39">
+      <c r="M285" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="58"/>
-      <c r="B286" s="55"/>
-      <c r="C286" s="52"/>
-      <c r="E286" s="24" t="s">
+      <c r="A286" s="65"/>
+      <c r="B286" s="59"/>
+      <c r="C286" s="53"/>
+      <c r="E286" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="F286" s="28" t="s">
+      <c r="F286" s="27" t="s">
         <v>436</v>
       </c>
       <c r="G286" s="3">
@@ -10135,22 +10189,22 @@
       <c r="K286" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="L286" s="24" t="s">
+      <c r="L286" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M286" s="39">
+      <c r="M286" s="36">
         <f>M284</f>
         <v>850000</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" s="58"/>
-      <c r="B287" s="55"/>
-      <c r="C287" s="52"/>
-      <c r="E287" s="24" t="s">
+      <c r="A287" s="65"/>
+      <c r="B287" s="59"/>
+      <c r="C287" s="53"/>
+      <c r="E287" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="F287" s="28" t="s">
+      <c r="F287" s="27" t="s">
         <v>426</v>
       </c>
       <c r="G287" s="3">
@@ -10168,16 +10222,16 @@
       <c r="K287" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M287" s="39"/>
+      <c r="M287" s="36"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="58"/>
-      <c r="B288" s="56"/>
-      <c r="C288" s="53"/>
-      <c r="E288" s="24" t="s">
+      <c r="A288" s="65"/>
+      <c r="B288" s="60"/>
+      <c r="C288" s="54"/>
+      <c r="E288" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="F288" s="28" t="s">
+      <c r="F288" s="27" t="s">
         <v>453</v>
       </c>
       <c r="G288" s="3">
@@ -10195,46 +10249,46 @@
       <c r="K288" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M288" s="39"/>
+      <c r="M288" s="36"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" s="58"/>
+      <c r="A289" s="65"/>
       <c r="I289" s="3">
         <v>0</v>
       </c>
-      <c r="M289" s="39"/>
-    </row>
-    <row r="290" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="58"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="20"/>
-      <c r="E290" s="25"/>
-      <c r="F290" s="29"/>
-      <c r="G290" s="19"/>
-      <c r="H290" s="21"/>
-      <c r="I290" s="19">
-        <v>0</v>
-      </c>
-      <c r="J290" s="19"/>
-      <c r="K290" s="19"/>
-      <c r="L290" s="25"/>
-      <c r="M290" s="40"/>
+      <c r="M289" s="36"/>
+    </row>
+    <row r="290" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="65"/>
+      <c r="B290" s="18"/>
+      <c r="C290" s="19"/>
+      <c r="E290" s="24"/>
+      <c r="F290" s="28"/>
+      <c r="G290" s="18"/>
+      <c r="H290" s="20"/>
+      <c r="I290" s="18">
+        <v>0</v>
+      </c>
+      <c r="J290" s="18"/>
+      <c r="K290" s="18"/>
+      <c r="L290" s="24"/>
+      <c r="M290" s="37"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" s="58"/>
-      <c r="B291" s="54" t="s">
+      <c r="A291" s="65"/>
+      <c r="B291" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="C291" s="51" t="s">
+      <c r="C291" s="52" t="s">
         <v>305</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E291" s="24" t="s">
+      <c r="E291" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="F291" s="28" t="s">
+      <c r="F291" s="27" t="s">
         <v>307</v>
       </c>
       <c r="G291" s="3">
@@ -10249,25 +10303,25 @@
       <c r="J291" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="K291" s="15" t="s">
+      <c r="K291" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L291" s="24" t="s">
+      <c r="L291" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="M291" s="39">
+      <c r="M291" s="36">
         <f>SUM(I291:I302)</f>
         <v>5736000</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" s="58"/>
-      <c r="B292" s="55"/>
-      <c r="C292" s="52"/>
-      <c r="E292" s="24" t="s">
+      <c r="A292" s="65"/>
+      <c r="B292" s="59"/>
+      <c r="C292" s="53"/>
+      <c r="E292" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="F292" s="28" t="s">
+      <c r="F292" s="27" t="s">
         <v>308</v>
       </c>
       <c r="G292" s="3">
@@ -10285,22 +10339,22 @@
       <c r="K292" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L292" s="33" t="s">
+      <c r="L292" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="M292" s="39">
+      <c r="M292" s="36">
         <f>SUM(I291)</f>
         <v>2200000</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" s="58"/>
-      <c r="B293" s="55"/>
-      <c r="C293" s="52"/>
-      <c r="E293" s="24" t="s">
+      <c r="A293" s="65"/>
+      <c r="B293" s="59"/>
+      <c r="C293" s="53"/>
+      <c r="E293" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F293" s="28" t="s">
+      <c r="F293" s="27" t="s">
         <v>299</v>
       </c>
       <c r="G293" s="3">
@@ -10318,22 +10372,22 @@
       <c r="K293" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L293" s="24" t="s">
+      <c r="L293" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="M293" s="39">
+      <c r="M293" s="36">
         <f>M291-M292</f>
         <v>3536000</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" s="58"/>
-      <c r="B294" s="55"/>
-      <c r="C294" s="52"/>
-      <c r="E294" s="24" t="s">
+      <c r="A294" s="65"/>
+      <c r="B294" s="59"/>
+      <c r="C294" s="53"/>
+      <c r="E294" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="F294" s="28" t="s">
+      <c r="F294" s="27" t="s">
         <v>309</v>
       </c>
       <c r="G294" s="3">
@@ -10351,16 +10405,16 @@
       <c r="K294" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M294" s="39"/>
+      <c r="M294" s="36"/>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" s="58"/>
-      <c r="B295" s="55"/>
-      <c r="C295" s="52"/>
-      <c r="E295" s="24" t="s">
+      <c r="A295" s="65"/>
+      <c r="B295" s="59"/>
+      <c r="C295" s="53"/>
+      <c r="E295" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="F295" s="28" t="s">
+      <c r="F295" s="27" t="s">
         <v>310</v>
       </c>
       <c r="G295" s="3">
@@ -10378,16 +10432,16 @@
       <c r="K295" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M295" s="39"/>
+      <c r="M295" s="36"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="58"/>
-      <c r="B296" s="55"/>
-      <c r="C296" s="52"/>
-      <c r="E296" s="24" t="s">
+      <c r="A296" s="65"/>
+      <c r="B296" s="59"/>
+      <c r="C296" s="53"/>
+      <c r="E296" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="F296" s="28" t="s">
+      <c r="F296" s="27" t="s">
         <v>311</v>
       </c>
       <c r="G296" s="3">
@@ -10405,16 +10459,16 @@
       <c r="K296" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M296" s="39"/>
+      <c r="M296" s="36"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" s="58"/>
-      <c r="B297" s="55"/>
-      <c r="C297" s="52"/>
-      <c r="E297" s="24" t="s">
+      <c r="A297" s="65"/>
+      <c r="B297" s="59"/>
+      <c r="C297" s="53"/>
+      <c r="E297" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="F297" s="28" t="s">
+      <c r="F297" s="27" t="s">
         <v>312</v>
       </c>
       <c r="G297" s="3">
@@ -10432,16 +10486,16 @@
       <c r="K297" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M297" s="39"/>
+      <c r="M297" s="36"/>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A298" s="58"/>
-      <c r="B298" s="55"/>
-      <c r="C298" s="52"/>
-      <c r="E298" s="24" t="s">
+      <c r="A298" s="65"/>
+      <c r="B298" s="59"/>
+      <c r="C298" s="53"/>
+      <c r="E298" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="F298" s="28" t="s">
+      <c r="F298" s="27" t="s">
         <v>117</v>
       </c>
       <c r="G298" s="3">
@@ -10459,16 +10513,16 @@
       <c r="K298" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M298" s="39"/>
+      <c r="M298" s="36"/>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A299" s="58"/>
-      <c r="B299" s="55"/>
-      <c r="C299" s="52"/>
-      <c r="E299" s="24" t="s">
+      <c r="A299" s="65"/>
+      <c r="B299" s="59"/>
+      <c r="C299" s="53"/>
+      <c r="E299" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="F299" s="28" t="s">
+      <c r="F299" s="27" t="s">
         <v>313</v>
       </c>
       <c r="G299" s="3">
@@ -10486,16 +10540,16 @@
       <c r="K299" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M299" s="39"/>
+      <c r="M299" s="36"/>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300" s="58"/>
-      <c r="B300" s="55"/>
-      <c r="C300" s="52"/>
-      <c r="E300" s="24" t="s">
+      <c r="A300" s="65"/>
+      <c r="B300" s="59"/>
+      <c r="C300" s="53"/>
+      <c r="E300" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F300" s="28" t="s">
+      <c r="F300" s="27" t="s">
         <v>314</v>
       </c>
       <c r="G300" s="3">
@@ -10513,16 +10567,16 @@
       <c r="K300" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M300" s="39"/>
+      <c r="M300" s="36"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A301" s="58"/>
-      <c r="B301" s="55"/>
-      <c r="C301" s="52"/>
-      <c r="E301" s="24" t="s">
+      <c r="A301" s="65"/>
+      <c r="B301" s="59"/>
+      <c r="C301" s="53"/>
+      <c r="E301" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="F301" s="28" t="s">
+      <c r="F301" s="27" t="s">
         <v>581</v>
       </c>
       <c r="G301" s="3">
@@ -10540,16 +10594,16 @@
       <c r="K301" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M301" s="39"/>
+      <c r="M301" s="36"/>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A302" s="58"/>
-      <c r="B302" s="56"/>
-      <c r="C302" s="53"/>
-      <c r="E302" s="24" t="s">
+      <c r="A302" s="65"/>
+      <c r="B302" s="60"/>
+      <c r="C302" s="54"/>
+      <c r="E302" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F302" s="28" t="s">
+      <c r="F302" s="27" t="s">
         <v>315</v>
       </c>
       <c r="G302" s="3">
@@ -10567,29 +10621,29 @@
       <c r="K302" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M302" s="39"/>
+      <c r="M302" s="36"/>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A303" s="59"/>
+      <c r="A303" s="66"/>
       <c r="I303" s="3">
         <v>0</v>
       </c>
-      <c r="M303" s="39"/>
-    </row>
-    <row r="304" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="19"/>
-      <c r="C304" s="20"/>
-      <c r="E304" s="25"/>
-      <c r="F304" s="29"/>
-      <c r="G304" s="19"/>
-      <c r="H304" s="21"/>
-      <c r="I304" s="19">
-        <v>0</v>
-      </c>
-      <c r="J304" s="19"/>
-      <c r="K304" s="19"/>
-      <c r="L304" s="25"/>
-      <c r="M304" s="40"/>
+      <c r="M303" s="36"/>
+    </row>
+    <row r="304" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="18"/>
+      <c r="C304" s="19"/>
+      <c r="E304" s="24"/>
+      <c r="F304" s="28"/>
+      <c r="G304" s="18"/>
+      <c r="H304" s="20"/>
+      <c r="I304" s="18">
+        <v>0</v>
+      </c>
+      <c r="J304" s="18"/>
+      <c r="K304" s="18"/>
+      <c r="L304" s="24"/>
+      <c r="M304" s="37"/>
     </row>
     <row r="305" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I305" s="3">
@@ -15073,6 +15127,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:T5"/>
+    <mergeCell ref="O6:Q7"/>
+    <mergeCell ref="R6:T7"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C29:C42"/>
+    <mergeCell ref="B29:B42"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:C26"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C102:C115"/>
+    <mergeCell ref="B102:B115"/>
+    <mergeCell ref="C87:C99"/>
+    <mergeCell ref="B87:B99"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="A209:A303"/>
+    <mergeCell ref="B232:B240"/>
+    <mergeCell ref="C232:C240"/>
+    <mergeCell ref="B243:B250"/>
+    <mergeCell ref="C243:C250"/>
+    <mergeCell ref="B253:B259"/>
+    <mergeCell ref="C253:C259"/>
+    <mergeCell ref="B262:B280"/>
+    <mergeCell ref="C262:C280"/>
+    <mergeCell ref="B284:B288"/>
+    <mergeCell ref="C284:C288"/>
+    <mergeCell ref="B291:B302"/>
+    <mergeCell ref="C291:C302"/>
+    <mergeCell ref="B209:B223"/>
+    <mergeCell ref="C209:C223"/>
+    <mergeCell ref="B226:B229"/>
     <mergeCell ref="C226:C229"/>
     <mergeCell ref="A2:A122"/>
     <mergeCell ref="D163:D176"/>
@@ -15089,43 +15180,6 @@
     <mergeCell ref="C124:C133"/>
     <mergeCell ref="B163:B176"/>
     <mergeCell ref="C163:C176"/>
-    <mergeCell ref="A209:A303"/>
-    <mergeCell ref="B232:B240"/>
-    <mergeCell ref="C232:C240"/>
-    <mergeCell ref="B243:B250"/>
-    <mergeCell ref="C243:C250"/>
-    <mergeCell ref="B253:B259"/>
-    <mergeCell ref="C253:C259"/>
-    <mergeCell ref="B262:B280"/>
-    <mergeCell ref="C262:C280"/>
-    <mergeCell ref="B284:B288"/>
-    <mergeCell ref="C284:C288"/>
-    <mergeCell ref="B291:B302"/>
-    <mergeCell ref="C291:C302"/>
-    <mergeCell ref="B209:B223"/>
-    <mergeCell ref="C209:C223"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C102:C115"/>
-    <mergeCell ref="B102:B115"/>
-    <mergeCell ref="C87:C99"/>
-    <mergeCell ref="B87:B99"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="O6:Q7"/>
-    <mergeCell ref="R6:T7"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C29:C42"/>
-    <mergeCell ref="B29:B42"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C16:C26"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:T5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J163" r:id="rId1" xr:uid="{52C225C7-41EB-4174-A254-B637C767E479}"/>
